--- a/Intermodal transportation/cu70101-AM-transportation model calculator-update.xlsx
+++ b/Intermodal transportation/cu70101-AM-transportation model calculator-update.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilal\Desktop\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5C70B-89E2-4D9D-B142-524146082B8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING sheet" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'final product division'!$A$10:$M$138</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="143" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,14 +46,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>R. Boot</author>
     <author>李 文华</author>
     <author>Ruben</author>
   </authors>
   <commentList>
-    <comment ref="N8" authorId="0">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="1">
+    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="1">
+    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="1">
+    <comment ref="K11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="1">
+    <comment ref="L11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD13" authorId="0">
+    <comment ref="AD13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE13" authorId="0">
+    <comment ref="AE13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="1">
+    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG20" authorId="0">
+    <comment ref="AG20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ20" authorId="0">
+    <comment ref="AJ20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK20" authorId="0">
+    <comment ref="AK20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL20" authorId="0">
+    <comment ref="AL20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ21" authorId="0">
+    <comment ref="AJ21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM21" authorId="0">
+    <comment ref="AM21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ22" authorId="0">
+    <comment ref="AJ22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="1">
+    <comment ref="H24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK30" authorId="1">
+    <comment ref="AK30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -565,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL30" authorId="1">
+    <comment ref="AL30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM30" authorId="1">
+    <comment ref="AM30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN30" authorId="1">
+    <comment ref="AN30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -617,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO30" authorId="1">
+    <comment ref="AO30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -635,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP30" authorId="1">
+    <comment ref="AP30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ30" authorId="1">
+    <comment ref="AQ30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR30" authorId="1">
+    <comment ref="AR30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -688,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS30" authorId="1">
+    <comment ref="AS30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -706,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT30" authorId="1">
+    <comment ref="AT30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG35" authorId="0">
+    <comment ref="AG35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK70" authorId="2">
+    <comment ref="AK70" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK76" authorId="2">
+    <comment ref="AK76" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -801,12 +807,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>李 文华</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -822,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -838,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +865,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="308">
   <si>
     <t>month</t>
   </si>
@@ -1606,91 +1612,91 @@
   </si>
   <si>
     <t>Ruben</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Hilal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Lubo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Vlad</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Jordan</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Zoe</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>define structurem content of presentation in PPT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>raw material</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>coal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>iron ore</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>anthracite</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>limestone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>dolomite</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>olivine</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>pulverized coal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>pellets</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>external scrap</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>lime</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>consumption of year(m ton)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>distance by truck</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>calculate the models of containers</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>excel model for final product information</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Units/Pallet</t>
@@ -1727,53 +1733,53 @@
   </si>
   <si>
     <t>Destination</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Paris </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>editable</t>
   </si>
   <si>
     <t xml:space="preserve">Product A </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Product B </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Product C </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Prdouct D </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>excel work</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>metric( bulk density t/m3)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>market price</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>consumption of year(m m3)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Types of Containers</t>
@@ -1930,25 +1936,35 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$€-413]\ * #,##0_ ;_ [$€-413]\ * \-#,##0_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-413]\ * #,##0_ ;_ [$€-413]\ * \-#,##0_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2915,48 +2931,48 @@
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2967,7 +2983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2981,154 +2997,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="44"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3150,30 +3166,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3181,12 +3197,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -3194,51 +3210,51 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="44"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
@@ -3247,20 +3263,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3268,42 +3284,42 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyBorder="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3311,7 +3327,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3322,43 +3338,31 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3371,6 +3375,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3415,7 +3437,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="常规 2" xfId="11"/>
+    <cellStyle name="常规 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3423,12 +3445,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="李 文华" refreshedDate="43378.602622222221" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="128">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="李 文华" refreshedDate="43378.602622222221" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="128" xr:uid="{00000000-000A-0000-FFFF-FFFF8F000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A10:M138" sheet="final product division"/>
   </cacheSource>
@@ -5457,7 +5482,159 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="143" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable24" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="AA10:AG16" firstHeaderRow="1" firstDataRow="2" firstDataCol="4" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item x="19"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="20"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="1"/>
+    <field x="9"/>
+    <field x="11"/>
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+      <x/>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="17"/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Sum of ttl weight" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Qty-Pallet" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Qty-20ft pallet wide container" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable25" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="AA20:AG26" firstHeaderRow="1" firstDataRow="2" firstDataCol="4" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -5601,154 +5778,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable24" cacheId="143" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="AA10:AG16" firstHeaderRow="1" firstDataRow="2" firstDataCol="4" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="6"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="21">
-        <item x="19"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="20"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="4">
-    <field x="1"/>
-    <field x="9"/>
-    <field x="11"/>
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-      <x/>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-      <x v="17"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x v="3"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-      <x v="3"/>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Sum of ttl weight" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Qty-Pallet" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Qty-20ft pallet wide container" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6016,79 +6047,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="13" max="13" width="6.19921875" customWidth="1"/>
-    <col min="14" max="14" width="4.796875" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
-    <col min="17" max="17" width="4.3984375" customWidth="1"/>
-    <col min="18" max="18" width="3.796875" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
+    <col min="18" max="18" width="3.77734375" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="4.3984375" customWidth="1"/>
-    <col min="21" max="21" width="3.796875" customWidth="1"/>
-    <col min="22" max="22" width="3.3984375" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="3.77734375" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE161"/>
   <sheetViews>
-    <sheetView topLeftCell="AC13" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK81" sqref="AK81"/>
+    <sheetView tabSelected="1" topLeftCell="S27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ53" sqref="AQ53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="13" max="13" width="9.796875" customWidth="1"/>
-    <col min="20" max="20" width="10.796875" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" customWidth="1"/>
-    <col min="22" max="22" width="3.796875" customWidth="1"/>
-    <col min="23" max="23" width="3.19921875" customWidth="1"/>
-    <col min="24" max="24" width="3.59765625" customWidth="1"/>
-    <col min="25" max="28" width="3.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="4.5546875" customWidth="1"/>
+    <col min="22" max="22" width="3.77734375" customWidth="1"/>
+    <col min="23" max="23" width="3.21875" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" customWidth="1"/>
+    <col min="25" max="28" width="3.21875" customWidth="1"/>
     <col min="29" max="29" width="3" customWidth="1"/>
-    <col min="30" max="30" width="4.796875" customWidth="1"/>
-    <col min="31" max="31" width="4.3984375" customWidth="1"/>
+    <col min="30" max="30" width="4.77734375" customWidth="1"/>
+    <col min="31" max="31" width="4.44140625" customWidth="1"/>
     <col min="32" max="32" width="3" customWidth="1"/>
-    <col min="34" max="34" width="10.796875" customWidth="1"/>
-    <col min="36" max="36" width="11.19921875" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="39" max="39" width="11.19921875" customWidth="1"/>
-    <col min="41" max="41" width="8.19921875" customWidth="1"/>
-    <col min="42" max="43" width="8.3984375" customWidth="1"/>
-    <col min="44" max="44" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.19921875" customWidth="1"/>
-    <col min="46" max="46" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.77734375" customWidth="1"/>
+    <col min="36" max="36" width="11.21875" customWidth="1"/>
+    <col min="37" max="37" width="8" customWidth="1"/>
+    <col min="39" max="39" width="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.21875" customWidth="1"/>
+    <col min="42" max="43" width="8.44140625" customWidth="1"/>
+    <col min="44" max="44" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.21875" customWidth="1"/>
+    <col min="46" max="46" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="14.4" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>142</v>
       </c>
@@ -6107,7 +6138,7 @@
       <c r="N1" s="97"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="15.6">
       <c r="A2" s="176"/>
       <c r="B2" s="27" t="s">
         <v>141</v>
@@ -6119,19 +6150,19 @@
       <c r="K2" s="160"/>
       <c r="L2" s="160"/>
     </row>
-    <row r="3" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="15.6">
       <c r="A3" s="174"/>
       <c r="B3" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="15.6">
       <c r="A4" s="175"/>
       <c r="B4" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="15.6">
       <c r="A5" s="25" t="s">
         <v>78</v>
       </c>
@@ -6140,7 +6171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="15.6">
       <c r="A6" s="25" t="s">
         <v>205</v>
       </c>
@@ -6163,7 +6194,7 @@
       <c r="O6" s="158"/>
       <c r="P6" s="26"/>
     </row>
-    <row r="7" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" ht="15.6">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -6184,7 +6215,7 @@
       <c r="O7" s="161"/>
       <c r="P7" s="26"/>
     </row>
-    <row r="8" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="15.6">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -6235,7 +6266,7 @@
       <c r="AB8" s="172"/>
       <c r="AC8" s="172"/>
     </row>
-    <row r="9" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="15.6">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="28"/>
@@ -6245,35 +6276,35 @@
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="30">
-        <f>SUM(G14:G106)</f>
+        <f t="shared" ref="G9:N9" si="0">SUM(G14:G106)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="H9" s="30">
-        <f>SUM(H14:H106)</f>
+        <f t="shared" si="0"/>
         <v>5.6666666666666661</v>
       </c>
       <c r="I9" s="30">
-        <f>SUM(I14:I106)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J9" s="30">
-        <f>SUM(J14:J106)</f>
+        <f t="shared" si="0"/>
         <v>5.6666666666666661</v>
       </c>
       <c r="K9" s="30">
-        <f>SUM(K14:K106)</f>
+        <f t="shared" si="0"/>
         <v>6.1666666666666661</v>
       </c>
       <c r="L9" s="30">
-        <f>SUM(L14:L106)</f>
+        <f t="shared" si="0"/>
         <v>8.1666666666666679</v>
       </c>
       <c r="M9" s="30">
-        <f>SUM(M14:M106)</f>
+        <f t="shared" si="0"/>
         <v>30.833333333333332</v>
       </c>
       <c r="N9" s="30">
-        <f>SUM(N14:N106)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="26"/>
@@ -6292,7 +6323,7 @@
       <c r="AB9" s="171"/>
       <c r="AC9" s="171"/>
     </row>
-    <row r="10" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="16.2" thickBot="1">
       <c r="B10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -6321,7 +6352,7 @@
       <c r="AB10" s="173"/>
       <c r="AC10" s="173"/>
     </row>
-    <row r="11" spans="1:47" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="41.25" customHeight="1" thickBot="1">
       <c r="A11" s="26" t="s">
         <v>186</v>
       </c>
@@ -6364,7 +6395,7 @@
       <c r="AB11" s="166"/>
       <c r="AC11" s="166"/>
     </row>
-    <row r="12" spans="1:47" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="31.95" customHeight="1" thickBot="1">
       <c r="A12" s="35" t="s">
         <v>1</v>
       </c>
@@ -6423,7 +6454,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:47" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="78.75" customHeight="1" thickBot="1">
       <c r="A13" s="163" t="s">
         <v>122</v>
       </c>
@@ -6510,7 +6541,7 @@
       <c r="AR13" s="173"/>
       <c r="AS13" s="173"/>
     </row>
-    <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="15.6">
       <c r="A14" s="162">
         <v>1</v>
       </c>
@@ -6588,7 +6619,7 @@
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
     </row>
-    <row r="15" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="15.6">
       <c r="A15" s="183"/>
       <c r="B15" s="56"/>
       <c r="C15" s="57"/>
@@ -6660,7 +6691,7 @@
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
     </row>
-    <row r="16" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="15.6">
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="57"/>
@@ -6740,7 +6771,7 @@
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
     </row>
-    <row r="17" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" ht="15.6">
       <c r="A17" s="55"/>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -6798,7 +6829,7 @@
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
     </row>
-    <row r="18" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="16.2" thickBot="1">
       <c r="A18" s="62"/>
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
@@ -6856,7 +6887,7 @@
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
     </row>
-    <row r="19" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="16.2" thickBot="1">
       <c r="E19" t="s">
         <v>49</v>
       </c>
@@ -6942,7 +6973,7 @@
       </c>
       <c r="BE19" s="13"/>
     </row>
-    <row r="20" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="16.2" thickBot="1">
       <c r="E20" s="109" t="s">
         <v>144</v>
       </c>
@@ -7033,7 +7064,7 @@
       </c>
       <c r="BE20" s="5"/>
     </row>
-    <row r="21" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="16.2" thickBot="1">
       <c r="E21" s="247">
         <v>6</v>
       </c>
@@ -7156,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="15.6">
       <c r="N22" s="31"/>
       <c r="R22" s="26"/>
       <c r="U22" s="99">
@@ -7261,7 +7292,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="16.2" thickBot="1">
       <c r="N23" s="31"/>
       <c r="R23" s="26"/>
       <c r="U23" s="99">
@@ -7367,7 +7398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" ht="16.2" thickBot="1">
       <c r="A24" s="164">
         <v>2</v>
       </c>
@@ -7391,7 +7422,7 @@
       <c r="K24" s="280"/>
       <c r="L24" s="280"/>
       <c r="M24" s="113">
-        <f t="shared" ref="M24:M29" si="0">SUM(G24:L24)</f>
+        <f t="shared" ref="M24:M29" si="1">SUM(G24:L24)</f>
         <v>3.5</v>
       </c>
       <c r="N24" s="31"/>
@@ -7505,7 +7536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="16.2" thickBot="1">
       <c r="A25" s="114"/>
       <c r="B25" s="56"/>
       <c r="C25" s="57"/>
@@ -7523,7 +7554,7 @@
       </c>
       <c r="L25" s="269"/>
       <c r="M25" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="N25" s="31"/>
@@ -7631,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" ht="16.2" thickBot="1">
       <c r="A26" s="114"/>
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
@@ -7649,7 +7680,7 @@
       <c r="K26" s="280"/>
       <c r="L26" s="280"/>
       <c r="M26" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="N26" s="31"/>
@@ -7733,7 +7764,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="16.2" thickBot="1">
       <c r="A27" s="114"/>
       <c r="B27" s="56"/>
       <c r="C27" s="57"/>
@@ -7752,7 +7783,7 @@
         <v>2.5</v>
       </c>
       <c r="M27" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="N27" s="31"/>
@@ -7794,7 +7825,7 @@
       </c>
       <c r="BC27" s="216"/>
     </row>
-    <row r="28" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" ht="16.2" thickBot="1">
       <c r="A28" s="114"/>
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
@@ -7812,7 +7843,7 @@
         <v>1.5</v>
       </c>
       <c r="M28" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="N28" s="31"/>
@@ -7851,7 +7882,7 @@
       <c r="AZ28" s="22"/>
       <c r="BA28" s="23"/>
     </row>
-    <row r="29" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="16.2" thickBot="1">
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="117"/>
@@ -7865,7 +7896,7 @@
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
       <c r="M29" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="31"/>
@@ -7940,7 +7971,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="15.6">
       <c r="E30" s="109" t="s">
         <v>144</v>
       </c>
@@ -8000,7 +8031,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" ht="15.6">
       <c r="N31" s="31"/>
       <c r="R31" s="26"/>
       <c r="U31" s="99">
@@ -8037,7 +8068,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" ht="15.6">
       <c r="N32" s="31"/>
       <c r="R32" s="26"/>
       <c r="U32" s="99">
@@ -8074,7 +8105,7 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="16.2" thickBot="1">
       <c r="A33" s="172" t="s">
         <v>150</v>
       </c>
@@ -8118,7 +8149,7 @@
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" ht="16.2" thickBot="1">
       <c r="A34" s="162">
         <v>3</v>
       </c>
@@ -8159,7 +8190,7 @@
       <c r="AE34" s="6"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" ht="16.2" thickBot="1">
       <c r="A35" s="55"/>
       <c r="B35" s="56"/>
       <c r="C35" s="57"/>
@@ -8216,7 +8247,7 @@
       <c r="AS35" s="199"/>
       <c r="AT35" s="199"/>
     </row>
-    <row r="36" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" ht="16.2" thickBot="1">
       <c r="A36" s="55"/>
       <c r="B36" s="56"/>
       <c r="C36" s="57"/>
@@ -8310,7 +8341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" ht="15.6">
       <c r="A37" s="62"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57"/>
@@ -8376,7 +8407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="15.6">
       <c r="E38" t="s">
         <v>144</v>
       </c>
@@ -8423,7 +8454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" ht="15.6">
       <c r="N39" s="31"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
@@ -8465,7 +8496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" ht="16.2" thickBot="1">
       <c r="N40" s="31"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
@@ -8506,7 +8537,7 @@
       <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
     </row>
-    <row r="41" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" ht="16.2" thickBot="1">
       <c r="A41" s="171" t="s">
         <v>110</v>
       </c>
@@ -8536,7 +8567,7 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="1"/>
     </row>
-    <row r="42" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" ht="16.2" thickBot="1">
       <c r="A42" s="162">
         <v>4</v>
       </c>
@@ -8594,7 +8625,7 @@
       <c r="AN42" s="199"/>
       <c r="AO42" s="199"/>
     </row>
-    <row r="43" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" ht="16.2" thickBot="1">
       <c r="A43" s="26"/>
       <c r="B43" s="56"/>
       <c r="C43" s="79"/>
@@ -8674,7 +8705,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" ht="16.2" thickBot="1">
       <c r="A44" s="26"/>
       <c r="B44" s="56"/>
       <c r="C44" s="79"/>
@@ -8752,7 +8783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" ht="16.2" thickBot="1">
       <c r="A45" s="26"/>
       <c r="B45" s="56"/>
       <c r="C45" s="80"/>
@@ -8795,18 +8826,38 @@
       <c r="AJ45" t="s">
         <v>7</v>
       </c>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="6"/>
-      <c r="AT45" s="6"/>
-    </row>
-    <row r="46" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AL45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AM45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AO45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AP45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AQ45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AR45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AS45" s="6">
+        <v>70</v>
+      </c>
+      <c r="AT45" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" ht="16.2" thickBot="1">
       <c r="M46" s="113"/>
       <c r="N46" s="31"/>
       <c r="R46" s="26"/>
@@ -8831,18 +8882,38 @@
       <c r="AJ46" t="s">
         <v>4</v>
       </c>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
-      <c r="AS46" s="6"/>
-      <c r="AT46" s="6"/>
-    </row>
-    <row r="47" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="AK46" s="6">
+        <v>7.15</v>
+      </c>
+      <c r="AL46" s="6">
+        <v>5.85</v>
+      </c>
+      <c r="AM46" s="6">
+        <v>7.54</v>
+      </c>
+      <c r="AN46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AO46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AP46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AQ46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AR46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AS46" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AT46" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" ht="15.6">
       <c r="M47" s="113"/>
       <c r="N47" s="31"/>
       <c r="R47" s="26"/>
@@ -8859,7 +8930,7 @@
       <c r="AE47" s="6"/>
       <c r="AF47" s="1"/>
     </row>
-    <row r="48" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" ht="15.6">
       <c r="N48" s="31"/>
       <c r="R48" s="26"/>
       <c r="U48" s="194">
@@ -8891,7 +8962,7 @@
       <c r="AM48" s="195"/>
       <c r="AN48" s="208"/>
     </row>
-    <row r="49" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="16.2" thickBot="1">
       <c r="A49" s="173" t="s">
         <v>153</v>
       </c>
@@ -8963,7 +9034,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="16.2" thickBot="1">
       <c r="A50" s="162">
         <v>5</v>
       </c>
@@ -9041,7 +9112,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="16.2" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="56"/>
       <c r="C51" s="59"/>
@@ -9097,7 +9168,7 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
     </row>
-    <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="16.2" thickBot="1">
       <c r="A52" s="55"/>
       <c r="B52" s="56"/>
       <c r="C52" s="59"/>
@@ -9151,7 +9222,7 @@
       <c r="AS52" s="6"/>
       <c r="AT52" s="6"/>
     </row>
-    <row r="53" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" ht="15.6">
       <c r="A53" s="62" t="s">
         <v>5</v>
       </c>
@@ -9188,7 +9259,7 @@
       <c r="AE53" s="6"/>
       <c r="AF53" s="1"/>
     </row>
-    <row r="54" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" ht="15.6">
       <c r="N54" s="31"/>
       <c r="U54" s="194">
         <f>U48+1</f>
@@ -9219,7 +9290,7 @@
       <c r="AM54" s="195"/>
       <c r="AN54" s="208"/>
     </row>
-    <row r="55" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" ht="15.6">
       <c r="N55" s="31"/>
       <c r="U55" s="99"/>
       <c r="V55" s="1"/>
@@ -9280,7 +9351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" ht="15.6">
       <c r="N56" s="31"/>
       <c r="U56" s="99">
         <f>U54</f>
@@ -9303,47 +9374,47 @@
         <v>6</v>
       </c>
       <c r="AK56" s="6">
-        <f t="shared" ref="AK56:AT56" si="1">ROUNDDOWN((2/3),2)</f>
+        <f t="shared" ref="AK56:AT56" si="2">ROUNDDOWN((2/3),2)</f>
         <v>0.66</v>
       </c>
       <c r="AL56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AM56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AN56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AO56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AP56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AQ56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AR56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AS56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="AT56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="57" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" ht="15.6">
       <c r="N57" s="31"/>
       <c r="U57" s="99">
         <f>U54</f>
@@ -9376,7 +9447,7 @@
       <c r="AS57" s="6"/>
       <c r="AT57" s="6"/>
     </row>
-    <row r="58" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" ht="15.6">
       <c r="A58" s="165">
         <v>6</v>
       </c>
@@ -9433,7 +9504,7 @@
       <c r="AS58" s="6"/>
       <c r="AT58" s="6"/>
     </row>
-    <row r="59" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" ht="15.6">
       <c r="A59" s="26"/>
       <c r="B59" s="56"/>
       <c r="C59" s="28"/>
@@ -9471,7 +9542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" ht="15.6">
       <c r="A60" s="26"/>
       <c r="B60" s="56"/>
       <c r="C60" s="28"/>
@@ -9530,7 +9601,7 @@
       <c r="AS60" s="195"/>
       <c r="AT60" s="23"/>
     </row>
-    <row r="61" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" ht="15.6">
       <c r="A61" s="26" t="s">
         <v>5</v>
       </c>
@@ -9615,7 +9686,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" ht="15.6">
       <c r="N62" s="31"/>
       <c r="P62" s="26"/>
       <c r="Q62" s="26"/>
@@ -9680,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" ht="15.6">
       <c r="N63" s="31"/>
       <c r="P63" s="26"/>
       <c r="Q63" s="26"/>
@@ -9718,7 +9789,7 @@
       <c r="AS63" s="6"/>
       <c r="AT63" s="6"/>
     </row>
-    <row r="64" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" ht="15.6">
       <c r="N64" s="31"/>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
@@ -9756,7 +9827,7 @@
       <c r="AS64" s="6"/>
       <c r="AT64" s="6"/>
     </row>
-    <row r="65" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" ht="15.6">
       <c r="N65" s="31"/>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
@@ -9780,7 +9851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" ht="15.6">
       <c r="A66" s="162">
         <v>7</v>
       </c>
@@ -9819,7 +9890,7 @@
       <c r="AE66" s="6"/>
       <c r="AF66" s="1"/>
     </row>
-    <row r="67" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" ht="15.6">
       <c r="A67" s="55"/>
       <c r="B67" s="56"/>
       <c r="C67" s="57"/>
@@ -9874,7 +9945,7 @@
       <c r="AO67" s="195"/>
       <c r="AP67" s="208"/>
     </row>
-    <row r="68" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" ht="15.6">
       <c r="A68" s="55"/>
       <c r="B68" s="56"/>
       <c r="C68" s="57"/>
@@ -9955,7 +10026,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="69" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" ht="15.6">
       <c r="A69" s="62"/>
       <c r="B69" s="86"/>
       <c r="C69" s="17"/>
@@ -10030,7 +10101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" ht="15.6">
       <c r="N70" s="31"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="26"/>
@@ -10058,47 +10129,47 @@
         <v>7</v>
       </c>
       <c r="AK70" s="6">
-        <f t="shared" ref="AK70:AT70" si="2">AK69*1.1</f>
+        <f t="shared" ref="AK70:AT70" si="3">AK69*1.1</f>
         <v>48.400000000000006</v>
       </c>
       <c r="AL70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AM70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AN70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AO70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AP70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AQ70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AR70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AS70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AT70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" ht="15.6">
       <c r="N71" s="31"/>
       <c r="P71" s="26"/>
       <c r="Q71" s="26"/>
@@ -10136,7 +10207,7 @@
       <c r="AS71" s="6"/>
       <c r="AT71" s="6"/>
     </row>
-    <row r="72" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" ht="15.6">
       <c r="N72" s="31"/>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
@@ -10157,7 +10228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" ht="15.6">
       <c r="N73" s="31"/>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
@@ -10193,7 +10264,7 @@
       <c r="AO73" s="195"/>
       <c r="AP73" s="208"/>
     </row>
-    <row r="74" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:48" ht="15.6">
       <c r="A74" s="165">
         <v>8</v>
       </c>
@@ -10273,7 +10344,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="75" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" ht="15.6">
       <c r="A75" s="26"/>
       <c r="B75" s="56"/>
       <c r="C75" s="28"/>
@@ -10348,7 +10419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:48" ht="15.6">
       <c r="A76" s="26"/>
       <c r="B76" s="56"/>
       <c r="C76" s="28"/>
@@ -10395,47 +10466,47 @@
         <v>7</v>
       </c>
       <c r="AK76" s="6">
-        <f t="shared" ref="AK76" si="3">AK75*1.1</f>
+        <f t="shared" ref="AK76" si="4">AK75*1.1</f>
         <v>48.400000000000006</v>
       </c>
       <c r="AL76" s="6">
-        <f t="shared" ref="AL76" si="4">AL75*1.1</f>
+        <f t="shared" ref="AL76" si="5">AL75*1.1</f>
         <v>44</v>
       </c>
       <c r="AM76" s="6">
-        <f t="shared" ref="AM76" si="5">AM75*1.1</f>
+        <f t="shared" ref="AM76" si="6">AM75*1.1</f>
         <v>44</v>
       </c>
       <c r="AN76" s="6">
-        <f t="shared" ref="AN76" si="6">AN75*1.1</f>
+        <f t="shared" ref="AN76" si="7">AN75*1.1</f>
         <v>44</v>
       </c>
       <c r="AO76" s="6">
-        <f t="shared" ref="AO76" si="7">AO75*1.1</f>
+        <f t="shared" ref="AO76" si="8">AO75*1.1</f>
         <v>44</v>
       </c>
       <c r="AP76" s="6">
-        <f t="shared" ref="AP76" si="8">AP75*1.1</f>
+        <f t="shared" ref="AP76" si="9">AP75*1.1</f>
         <v>44</v>
       </c>
       <c r="AQ76" s="6">
-        <f t="shared" ref="AQ76" si="9">AQ75*1.1</f>
+        <f t="shared" ref="AQ76" si="10">AQ75*1.1</f>
         <v>44</v>
       </c>
       <c r="AR76" s="6">
-        <f t="shared" ref="AR76" si="10">AR75*1.1</f>
+        <f t="shared" ref="AR76" si="11">AR75*1.1</f>
         <v>44</v>
       </c>
       <c r="AS76" s="6">
-        <f t="shared" ref="AS76" si="11">AS75*1.1</f>
+        <f t="shared" ref="AS76" si="12">AS75*1.1</f>
         <v>44</v>
       </c>
       <c r="AT76" s="6">
-        <f t="shared" ref="AT76" si="12">AT75*1.1</f>
+        <f t="shared" ref="AT76" si="13">AT75*1.1</f>
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" ht="15.6">
       <c r="A77" s="26"/>
       <c r="B77" s="56"/>
       <c r="C77" s="28"/>
@@ -10490,7 +10561,7 @@
       <c r="AS77" s="6"/>
       <c r="AT77" s="6"/>
     </row>
-    <row r="78" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:48" ht="15.6">
       <c r="N78" s="31"/>
       <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
@@ -10511,7 +10582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" ht="15.6">
       <c r="N79" s="31"/>
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
@@ -10544,7 +10615,7 @@
       <c r="AL79" s="195"/>
       <c r="AM79" s="208"/>
     </row>
-    <row r="80" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" ht="15.6">
       <c r="N80" s="31"/>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
@@ -10608,7 +10679,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" ht="15.6">
       <c r="N81" s="31"/>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
@@ -10679,7 +10750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" ht="15.6">
       <c r="A82" s="162">
         <v>9</v>
       </c>
@@ -10768,7 +10839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" ht="15.6">
       <c r="A83" s="55"/>
       <c r="B83" s="56"/>
       <c r="C83" s="57"/>
@@ -10823,7 +10894,7 @@
       <c r="AS83" s="6"/>
       <c r="AT83" s="6"/>
     </row>
-    <row r="84" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" ht="15.6">
       <c r="A84" s="55"/>
       <c r="B84" s="56"/>
       <c r="C84" s="57"/>
@@ -10861,7 +10932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" ht="15.6">
       <c r="A85" s="62"/>
       <c r="B85" s="63"/>
       <c r="C85" s="17"/>
@@ -10911,7 +10982,7 @@
       <c r="AL85" s="195"/>
       <c r="AM85" s="208"/>
     </row>
-    <row r="86" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" ht="15.6">
       <c r="N86" s="31"/>
       <c r="O86" s="26"/>
       <c r="P86" s="26"/>
@@ -10973,7 +11044,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="87" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" ht="15.6">
       <c r="N87" s="31"/>
       <c r="O87" s="26"/>
       <c r="P87" s="26"/>
@@ -11042,7 +11113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" ht="15.6">
       <c r="N88" s="31"/>
       <c r="O88" s="26"/>
       <c r="P88" s="26"/>
@@ -11111,7 +11182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" ht="15.6">
       <c r="N89" s="31"/>
       <c r="O89" s="26"/>
       <c r="P89" s="26"/>
@@ -11150,7 +11221,7 @@
       <c r="AS89" s="6"/>
       <c r="AT89" s="6"/>
     </row>
-    <row r="90" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" ht="15.6">
       <c r="N90" s="31"/>
       <c r="O90" s="26"/>
       <c r="P90" s="26"/>
@@ -11172,7 +11243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" ht="15.6">
       <c r="N91" s="31"/>
       <c r="O91" s="26"/>
       <c r="P91" s="26"/>
@@ -11234,7 +11305,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="92" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" ht="15.6">
       <c r="N92" s="31"/>
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
@@ -11296,7 +11367,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" ht="15.6">
       <c r="N93" s="31"/>
       <c r="O93" s="26"/>
       <c r="P93" s="26"/>
@@ -11358,7 +11429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" ht="15.6">
       <c r="N94" s="31"/>
       <c r="O94" s="26"/>
       <c r="P94" s="26"/>
@@ -11390,7 +11461,7 @@
       <c r="AS94" s="6"/>
       <c r="AT94" s="6"/>
     </row>
-    <row r="95" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" ht="15.6">
       <c r="N95" s="31"/>
       <c r="O95" s="26"/>
       <c r="P95" s="26"/>
@@ -11412,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" ht="15.6">
       <c r="N96" s="31"/>
       <c r="O96" s="26"/>
       <c r="P96" s="26"/>
@@ -11474,7 +11545,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" ht="15.6">
       <c r="N97" s="31"/>
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
@@ -11536,7 +11607,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" ht="15.6">
       <c r="N98" s="31"/>
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
@@ -11598,7 +11669,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" ht="15.6">
       <c r="N99" s="31"/>
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
@@ -11630,7 +11701,7 @@
       <c r="AS99" s="6"/>
       <c r="AT99" s="6"/>
     </row>
-    <row r="100" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" ht="15.6">
       <c r="N100" s="31"/>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
@@ -11652,7 +11723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" ht="15.6">
       <c r="N101" s="31"/>
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
@@ -11714,7 +11785,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="102" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" ht="15.6">
       <c r="N102" s="31"/>
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
@@ -11776,7 +11847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" ht="15.6">
       <c r="N103" s="31"/>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
@@ -11838,7 +11909,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" ht="15.6">
       <c r="N104" s="31"/>
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
@@ -11870,7 +11941,7 @@
       <c r="AS104" s="6"/>
       <c r="AT104" s="6"/>
     </row>
-    <row r="105" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" ht="15.6">
       <c r="N105" s="31"/>
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
@@ -11892,7 +11963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" ht="15.6">
       <c r="N106" s="31"/>
       <c r="O106" s="26"/>
       <c r="P106" s="26"/>
@@ -11926,7 +11997,7 @@
       <c r="AL106" s="208"/>
       <c r="AM106" s="208"/>
     </row>
-    <row r="107" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" ht="15.6">
       <c r="A107" s="162">
         <v>10</v>
       </c>
@@ -11944,7 +12015,7 @@
       <c r="K107" s="53"/>
       <c r="L107" s="53"/>
       <c r="M107" s="53">
-        <f>SUM(G107:K107)</f>
+        <f t="shared" ref="M107:M112" si="14">SUM(G107:K107)</f>
         <v>0</v>
       </c>
       <c r="N107" s="31"/>
@@ -12008,7 +12079,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" ht="15.6">
       <c r="A108" s="55"/>
       <c r="B108" s="56"/>
       <c r="C108" s="1"/>
@@ -12022,7 +12093,7 @@
       <c r="K108" s="34"/>
       <c r="L108" s="34"/>
       <c r="M108" s="34">
-        <f>SUM(G108:K108)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N108" s="31"/>
@@ -12053,18 +12124,38 @@
       <c r="AJ108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AK108" s="6"/>
-      <c r="AL108" s="6"/>
-      <c r="AM108" s="6"/>
-      <c r="AN108" s="6"/>
-      <c r="AO108" s="6"/>
-      <c r="AP108" s="6"/>
-      <c r="AQ108" s="6"/>
-      <c r="AR108" s="6"/>
-      <c r="AS108" s="6"/>
-      <c r="AT108" s="6"/>
-    </row>
-    <row r="109" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+      <c r="AK108" s="6">
+        <v>333</v>
+      </c>
+      <c r="AL108" s="6">
+        <v>328</v>
+      </c>
+      <c r="AM108" s="6">
+        <v>654</v>
+      </c>
+      <c r="AN108" s="6">
+        <v>315</v>
+      </c>
+      <c r="AO108" s="6">
+        <v>333</v>
+      </c>
+      <c r="AP108" s="6">
+        <v>162</v>
+      </c>
+      <c r="AQ108" s="6">
+        <v>317</v>
+      </c>
+      <c r="AR108" s="6">
+        <v>318</v>
+      </c>
+      <c r="AS108" s="6">
+        <v>328</v>
+      </c>
+      <c r="AT108" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="15.6">
       <c r="A109" s="55"/>
       <c r="B109" s="56"/>
       <c r="C109" s="1"/>
@@ -12078,7 +12169,7 @@
       <c r="K109" s="34"/>
       <c r="L109" s="34"/>
       <c r="M109" s="34">
-        <f>SUM(G109:K109)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N109" s="31"/>
@@ -12109,18 +12200,38 @@
       <c r="AJ109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AK109" s="6"/>
-      <c r="AL109" s="6"/>
-      <c r="AM109" s="6"/>
-      <c r="AN109" s="6"/>
-      <c r="AO109" s="6"/>
-      <c r="AP109" s="6"/>
-      <c r="AQ109" s="6"/>
-      <c r="AR109" s="6"/>
-      <c r="AS109" s="6"/>
-      <c r="AT109" s="6"/>
-    </row>
-    <row r="110" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+      <c r="AK109" s="6">
+        <v>959</v>
+      </c>
+      <c r="AL109" s="6">
+        <v>816</v>
+      </c>
+      <c r="AM109" s="6">
+        <v>1630</v>
+      </c>
+      <c r="AN109" s="6">
+        <v>788</v>
+      </c>
+      <c r="AO109" s="6">
+        <v>830</v>
+      </c>
+      <c r="AP109" s="6">
+        <v>402</v>
+      </c>
+      <c r="AQ109" s="6">
+        <v>787</v>
+      </c>
+      <c r="AR109" s="6">
+        <v>636</v>
+      </c>
+      <c r="AS109" s="6">
+        <v>654</v>
+      </c>
+      <c r="AT109" s="6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" ht="15.6">
       <c r="A110" s="55"/>
       <c r="B110" s="56"/>
       <c r="C110" s="1"/>
@@ -12134,7 +12245,7 @@
       <c r="K110" s="91"/>
       <c r="L110" s="91"/>
       <c r="M110" s="34">
-        <f>SUM(G110:K110)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N110" s="31"/>
@@ -12165,18 +12276,38 @@
       <c r="AJ110" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK110" s="6"/>
-      <c r="AL110" s="6"/>
-      <c r="AM110" s="6"/>
-      <c r="AN110" s="6"/>
-      <c r="AO110" s="6"/>
-      <c r="AP110" s="6"/>
-      <c r="AQ110" s="6"/>
-      <c r="AR110" s="6"/>
-      <c r="AS110" s="6"/>
-      <c r="AT110" s="6"/>
-    </row>
-    <row r="111" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+      <c r="AK110" s="6">
+        <v>575</v>
+      </c>
+      <c r="AL110" s="6">
+        <v>490</v>
+      </c>
+      <c r="AM110" s="6">
+        <v>979</v>
+      </c>
+      <c r="AN110" s="6">
+        <v>473</v>
+      </c>
+      <c r="AO110" s="6">
+        <v>499</v>
+      </c>
+      <c r="AP110" s="6">
+        <v>243</v>
+      </c>
+      <c r="AQ110" s="6">
+        <v>473</v>
+      </c>
+      <c r="AR110" s="6">
+        <v>477</v>
+      </c>
+      <c r="AS110" s="6">
+        <v>490</v>
+      </c>
+      <c r="AT110" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="15.6">
       <c r="A111" s="55"/>
       <c r="B111" s="56"/>
       <c r="C111" s="1"/>
@@ -12190,7 +12321,7 @@
       <c r="K111" s="91"/>
       <c r="L111" s="91"/>
       <c r="M111" s="34">
-        <f>SUM(G111:K111)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N111" s="31"/>
@@ -12213,18 +12344,38 @@
       <c r="AJ111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK111" s="6"/>
-      <c r="AL111" s="6"/>
-      <c r="AM111" s="6"/>
-      <c r="AN111" s="6"/>
-      <c r="AO111" s="6"/>
-      <c r="AP111" s="6"/>
-      <c r="AQ111" s="6"/>
-      <c r="AR111" s="6"/>
-      <c r="AS111" s="6"/>
-      <c r="AT111" s="6"/>
-    </row>
-    <row r="112" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+      <c r="AK111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR111" s="6">
+        <v>160</v>
+      </c>
+      <c r="AS111" s="6">
+        <v>165</v>
+      </c>
+      <c r="AT111" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" ht="15.6">
       <c r="A112" s="62"/>
       <c r="B112" s="63"/>
       <c r="C112" s="17"/>
@@ -12238,7 +12389,7 @@
       <c r="K112" s="95"/>
       <c r="L112" s="95"/>
       <c r="M112" s="70">
-        <f>SUM(G112:K112)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N112" s="31">
@@ -12261,7 +12412,7 @@
       <c r="AE112" s="125"/>
       <c r="AF112" s="1"/>
     </row>
-    <row r="113" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" ht="15.6">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
@@ -12322,7 +12473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" ht="15.6">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
@@ -12378,7 +12529,7 @@
       <c r="AN114" s="6"/>
       <c r="AO114" s="6"/>
     </row>
-    <row r="115" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" ht="15.6">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
@@ -12430,7 +12581,7 @@
       <c r="AN115" s="6"/>
       <c r="AO115" s="6"/>
     </row>
-    <row r="116" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" ht="15.6">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
@@ -12482,7 +12633,7 @@
       <c r="AN116" s="6"/>
       <c r="AO116" s="6"/>
     </row>
-    <row r="117" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" ht="15.6">
       <c r="A117" s="26"/>
       <c r="M117" s="26" t="s">
         <v>5</v>
@@ -12513,7 +12664,7 @@
       <c r="AN117" s="6"/>
       <c r="AO117" s="6"/>
     </row>
-    <row r="118" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" ht="15.6">
       <c r="M118" s="26" t="s">
         <v>5</v>
       </c>
@@ -12533,7 +12684,7 @@
       <c r="AH118" s="10"/>
       <c r="AI118" s="10"/>
     </row>
-    <row r="119" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" ht="15.6">
       <c r="M119" s="26" t="s">
         <v>5</v>
       </c>
@@ -12605,7 +12756,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="120" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" ht="15.6">
       <c r="M120" s="26" t="s">
         <v>5</v>
       </c>
@@ -12646,7 +12797,7 @@
       <c r="AS120" s="6"/>
       <c r="AT120" s="6"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46">
       <c r="U121" s="99">
         <f>U120</f>
         <v>18</v>
@@ -12683,7 +12834,7 @@
       <c r="AS121" s="6"/>
       <c r="AT121" s="6"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46">
       <c r="U122" s="99">
         <f>U121</f>
         <v>18</v>
@@ -12720,7 +12871,7 @@
       <c r="AS122" s="6"/>
       <c r="AT122" s="6"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46">
       <c r="U123" s="99"/>
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
@@ -12747,7 +12898,7 @@
       <c r="AS123" s="6"/>
       <c r="AT123" s="6"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46">
       <c r="U124" s="99"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
@@ -12761,7 +12912,7 @@
       <c r="AE124" s="6"/>
       <c r="AF124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46">
       <c r="U125" s="194">
         <f>U119+1</f>
         <v>19</v>
@@ -12790,7 +12941,7 @@
       <c r="AL125" s="195"/>
       <c r="AM125" s="208"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46">
       <c r="U126" s="99"/>
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
@@ -12847,7 +12998,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46">
       <c r="U127" s="99">
         <f>U125</f>
         <v>19</v>
@@ -12911,7 +13062,7 @@
         <v>57.905999999999992</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46">
       <c r="U128" s="99">
         <f>U127</f>
         <v>19</v>
@@ -12945,7 +13096,7 @@
       <c r="AS128" s="6"/>
       <c r="AT128" s="6"/>
     </row>
-    <row r="129" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="129" spans="21:48">
       <c r="U129" s="99">
         <f>U128</f>
         <v>19</v>
@@ -12979,7 +13130,7 @@
       <c r="AS129" s="6"/>
       <c r="AT129" s="6"/>
     </row>
-    <row r="130" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="130" spans="21:48">
       <c r="U130" s="99"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
@@ -13006,7 +13157,7 @@
       <c r="AS130" s="6"/>
       <c r="AT130" s="6"/>
     </row>
-    <row r="131" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="131" spans="21:48">
       <c r="U131" s="99"/>
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
@@ -13020,7 +13171,7 @@
       <c r="AE131" s="6"/>
       <c r="AF131" s="1"/>
     </row>
-    <row r="132" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="132" spans="21:48">
       <c r="U132" s="194">
         <f>U125+1</f>
         <v>20</v>
@@ -13049,7 +13200,7 @@
       <c r="AL132" s="195"/>
       <c r="AM132" s="208"/>
     </row>
-    <row r="133" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="133" spans="21:48">
       <c r="U133" s="46"/>
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
@@ -13106,7 +13257,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="134" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="134" spans="21:48">
       <c r="U134" s="99">
         <f>U132</f>
         <v>20</v>
@@ -13170,7 +13321,7 @@
         <v>0.24746153846153843</v>
       </c>
     </row>
-    <row r="135" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="135" spans="21:48">
       <c r="U135" s="99">
         <f>U134</f>
         <v>20</v>
@@ -13204,7 +13355,7 @@
       <c r="AS135" s="6"/>
       <c r="AT135" s="6"/>
     </row>
-    <row r="136" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="136" spans="21:48">
       <c r="U136" s="99">
         <f>U135</f>
         <v>20</v>
@@ -13238,7 +13389,7 @@
       <c r="AS136" s="6"/>
       <c r="AT136" s="6"/>
     </row>
-    <row r="137" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="137" spans="21:48">
       <c r="U137" s="46"/>
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
@@ -13265,7 +13416,7 @@
       <c r="AS137" s="6"/>
       <c r="AT137" s="6"/>
     </row>
-    <row r="138" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="138" spans="21:48">
       <c r="U138" s="46"/>
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
@@ -13279,7 +13430,7 @@
       <c r="AE138" s="6"/>
       <c r="AF138" s="1"/>
     </row>
-    <row r="139" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="139" spans="21:48">
       <c r="U139" s="194">
         <f>U132+1</f>
         <v>21</v>
@@ -13306,7 +13457,7 @@
       <c r="AJ139" s="195"/>
       <c r="AK139" s="208"/>
     </row>
-    <row r="140" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="140" spans="21:48">
       <c r="U140" s="99"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
@@ -13363,7 +13514,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="141" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="141" spans="21:48">
       <c r="U141" s="99">
         <f>U139</f>
         <v>21</v>
@@ -13427,7 +13578,7 @@
         <v>0.73021437578814619</v>
       </c>
     </row>
-    <row r="142" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="142" spans="21:48">
       <c r="U142" s="99">
         <f>U141</f>
         <v>21</v>
@@ -13461,7 +13612,7 @@
       <c r="AS142" s="6"/>
       <c r="AT142" s="6"/>
     </row>
-    <row r="143" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="143" spans="21:48">
       <c r="U143" s="99">
         <f>U142</f>
         <v>21</v>
@@ -13495,7 +13646,7 @@
       <c r="AS143" s="6"/>
       <c r="AT143" s="6"/>
     </row>
-    <row r="144" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="144" spans="21:48">
       <c r="U144" s="99"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
@@ -13523,7 +13674,7 @@
       <c r="AT144" s="6"/>
       <c r="AV144" s="6"/>
     </row>
-    <row r="145" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="145" spans="21:48">
       <c r="U145" s="99"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
@@ -13538,7 +13689,7 @@
       <c r="AF145" s="1"/>
       <c r="AV145" s="6"/>
     </row>
-    <row r="146" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="146" spans="21:48">
       <c r="U146" s="209">
         <f>U139+1</f>
         <v>22</v>
@@ -13566,7 +13717,7 @@
       <c r="AK146" s="208"/>
       <c r="AV146" s="6"/>
     </row>
-    <row r="147" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="147" spans="21:48">
       <c r="U147" s="99"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
@@ -13627,7 +13778,7 @@
       </c>
       <c r="AV147" s="6"/>
     </row>
-    <row r="148" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="148" spans="21:48">
       <c r="U148" s="99">
         <f>U146</f>
         <v>22</v>
@@ -13662,7 +13813,7 @@
       <c r="AT148" s="6"/>
       <c r="AU148" s="6"/>
     </row>
-    <row r="149" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="149" spans="21:48">
       <c r="U149" s="99">
         <f>U148</f>
         <v>22</v>
@@ -13697,7 +13848,7 @@
       <c r="AT149" s="6"/>
       <c r="AU149" s="6"/>
     </row>
-    <row r="150" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="21:48" ht="14.4" thickBot="1">
       <c r="U150" s="99">
         <f>U149</f>
         <v>22</v>
@@ -13732,7 +13883,7 @@
       <c r="AT150" s="6"/>
       <c r="AU150" s="6"/>
     </row>
-    <row r="151" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="151" spans="21:48">
       <c r="U151" s="99"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
@@ -13761,7 +13912,7 @@
       <c r="AU151" s="6"/>
       <c r="AV151" s="221"/>
     </row>
-    <row r="152" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="152" spans="21:48">
       <c r="U152" s="99"/>
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
@@ -13776,7 +13927,7 @@
       <c r="AF152" s="1"/>
       <c r="AV152" s="107"/>
     </row>
-    <row r="153" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="153" spans="21:48">
       <c r="U153" s="209">
         <f>U146+1</f>
         <v>23</v>
@@ -13806,7 +13957,7 @@
       <c r="AM153" s="208"/>
       <c r="AV153" s="107"/>
     </row>
-    <row r="154" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="21:48" ht="14.4" thickBot="1">
       <c r="U154" s="99"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
@@ -13864,7 +14015,7 @@
       </c>
       <c r="AV154" s="225"/>
     </row>
-    <row r="155" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="155" spans="21:48">
       <c r="U155" s="99">
         <f>U153</f>
         <v>23</v>
@@ -13900,7 +14051,7 @@
       <c r="AU155" s="220"/>
       <c r="AV155" s="86"/>
     </row>
-    <row r="156" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="156" spans="21:48">
       <c r="U156" s="99">
         <f>U155</f>
         <v>23</v>
@@ -13935,7 +14086,7 @@
       <c r="AT156" s="6"/>
       <c r="AU156" s="6"/>
     </row>
-    <row r="157" spans="21:48" x14ac:dyDescent="0.2">
+    <row r="157" spans="21:48">
       <c r="U157" s="99">
         <f>U156</f>
         <v>23</v>
@@ -13970,7 +14121,7 @@
       <c r="AT157" s="6"/>
       <c r="AU157" s="6"/>
     </row>
-    <row r="158" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="21:48" ht="14.4" thickBot="1">
       <c r="U158" s="100"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
@@ -14000,7 +14151,7 @@
       <c r="AT158" s="224"/>
       <c r="AU158" s="224"/>
     </row>
-    <row r="159" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="21:48" ht="14.4" thickBot="1">
       <c r="AD159" s="125"/>
       <c r="AE159" s="6"/>
       <c r="AF159" s="1"/>
@@ -14019,7 +14170,7 @@
       <c r="AT159" s="86"/>
       <c r="AU159" s="86"/>
     </row>
-    <row r="160" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="21:48" ht="14.4" thickBot="1">
       <c r="U160" s="11" t="s">
         <v>161</v>
       </c>
@@ -14041,7 +14192,7 @@
       </c>
       <c r="AF160" s="1"/>
     </row>
-    <row r="161" spans="21:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="21:34" ht="14.4" thickBot="1">
       <c r="U161" s="123" t="s">
         <v>163</v>
       </c>
@@ -14071,7 +14222,7 @@
       <c r="AH161" s="201"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -14079,26 +14230,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.3984375" customWidth="1"/>
-    <col min="30" max="30" width="23.19921875" customWidth="1"/>
-    <col min="31" max="31" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.44140625" customWidth="1"/>
+    <col min="30" max="30" width="23.21875" customWidth="1"/>
+    <col min="31" max="31" width="15.5546875" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -14107,7 +14258,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="str">
         <f>'Current base situation'!AK$29</f>
@@ -14157,7 +14308,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="B3" s="6" t="s">
         <v>277</v>
       </c>
@@ -14199,7 +14350,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="B4" s="6" t="s">
         <v>278</v>
       </c>
@@ -14251,12 +14402,12 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="B5" s="6" t="s">
         <v>279</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:X5" si="0">(1.4*C4)</f>
+        <f t="shared" ref="C5:D5" si="0">(1.4*C4)</f>
         <v>105.92399999999999</v>
       </c>
       <c r="D5" s="6">
@@ -14264,35 +14415,35 @@
         <v>212.1</v>
       </c>
       <c r="E5" s="6">
-        <f>(1.4*E4)</f>
+        <f t="shared" ref="E5:L5" si="1">(1.4*E4)</f>
         <v>240.23999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f>(1.4*F4)</f>
+        <f t="shared" si="1"/>
         <v>157.91999999999999</v>
       </c>
       <c r="G5" s="6">
-        <f>(1.4*G4)</f>
+        <f t="shared" si="1"/>
         <v>137.76</v>
       </c>
       <c r="H5" s="6">
-        <f>(1.4*H4)</f>
+        <f t="shared" si="1"/>
         <v>447.29999999999995</v>
       </c>
       <c r="I5" s="6">
-        <f>(1.4*I4)</f>
+        <f t="shared" si="1"/>
         <v>405.71999999999997</v>
       </c>
       <c r="J5" s="6">
-        <f>(1.4*J4)</f>
+        <f t="shared" si="1"/>
         <v>454.44</v>
       </c>
       <c r="K5" s="6">
-        <f>(1.4*K4)</f>
+        <f t="shared" si="1"/>
         <v>540.54</v>
       </c>
       <c r="L5" s="6">
-        <f>(1.4*L4)</f>
+        <f t="shared" si="1"/>
         <v>333.06</v>
       </c>
       <c r="M5" s="1"/>
@@ -14303,7 +14454,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="B6" s="6" t="s">
         <v>280</v>
       </c>
@@ -14352,48 +14503,48 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="B7" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" ref="C7:X7" si="1">(C3+C5+C6)</f>
+        <f t="shared" ref="C7:D7" si="2">(C3+C5+C6)</f>
         <v>155.92399999999998</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>359.5</v>
       </c>
       <c r="E7" s="6">
-        <f>(E3+E5+E6)</f>
+        <f t="shared" ref="E7:L7" si="3">(E3+E5+E6)</f>
         <v>414.04</v>
       </c>
       <c r="F7" s="6">
-        <f>(F3+F5+F6)</f>
+        <f t="shared" si="3"/>
         <v>260.41999999999996</v>
       </c>
       <c r="G7" s="6">
-        <f>(G3+G5+G6)</f>
+        <f t="shared" si="3"/>
         <v>219.35999999999999</v>
       </c>
       <c r="H7" s="6">
-        <f>(H3+H5+H6)</f>
+        <f t="shared" si="3"/>
         <v>973.9</v>
       </c>
       <c r="I7" s="6">
-        <f>(I3+I5+I6)</f>
+        <f t="shared" si="3"/>
         <v>676.22</v>
       </c>
       <c r="J7" s="6">
-        <f>(J3+J5+J6)</f>
+        <f t="shared" si="3"/>
         <v>1442.64</v>
       </c>
       <c r="K7" s="6">
-        <f>(K3+K5+K6)</f>
+        <f t="shared" si="3"/>
         <v>1009.54</v>
       </c>
       <c r="L7" s="6">
-        <f>(L3+L5+L6)</f>
+        <f t="shared" si="3"/>
         <v>579.05999999999995</v>
       </c>
       <c r="M7" s="1"/>
@@ -14410,7 +14561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="14.4" thickBot="1">
       <c r="AA8" s="275" t="s">
         <v>262</v>
       </c>
@@ -14418,7 +14569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="B9" s="11" t="s">
         <v>294</v>
       </c>
@@ -14487,7 +14638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14497,36 +14648,36 @@
       <c r="C10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="307" t="s">
+      <c r="D10" s="324" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="307" t="s">
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="307"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="307" t="s">
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="324" t="s">
         <v>297</v>
       </c>
-      <c r="M10" s="307"/>
-      <c r="N10" s="307"/>
-      <c r="O10" s="307"/>
-      <c r="P10" s="307" t="s">
+      <c r="M10" s="324"/>
+      <c r="N10" s="324"/>
+      <c r="O10" s="324"/>
+      <c r="P10" s="324" t="s">
         <v>298</v>
       </c>
-      <c r="Q10" s="307"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="307"/>
-      <c r="T10" s="307" t="s">
+      <c r="Q10" s="324"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="324"/>
+      <c r="T10" s="324" t="s">
         <v>299</v>
       </c>
-      <c r="U10" s="307"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="309"/>
+      <c r="U10" s="324"/>
+      <c r="V10" s="324"/>
+      <c r="W10" s="325"/>
       <c r="X10" s="1" t="s">
         <v>302</v>
       </c>
@@ -14538,8 +14689,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B11" s="310">
+    <row r="11" spans="1:33">
+      <c r="B11" s="326">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -14612,8 +14763,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B12" s="310"/>
+    <row r="12" spans="1:33">
+      <c r="B12" s="326"/>
       <c r="C12" s="1">
         <v>2</v>
       </c>
@@ -14684,8 +14835,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B13" s="310"/>
+    <row r="13" spans="1:33">
+      <c r="B13" s="326"/>
       <c r="C13" s="1">
         <v>3</v>
       </c>
@@ -14756,8 +14907,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B14" s="310"/>
+    <row r="14" spans="1:33">
+      <c r="B14" s="326"/>
       <c r="C14" s="1">
         <v>4</v>
       </c>
@@ -14768,7 +14919,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="308"/>
+      <c r="G14" s="307"/>
       <c r="H14" s="8">
         <v>1</v>
       </c>
@@ -14776,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="308"/>
+      <c r="K14" s="307"/>
       <c r="L14" s="8"/>
       <c r="M14" s="17">
         <v>1</v>
@@ -14784,13 +14935,13 @@
       <c r="N14" s="17">
         <v>1</v>
       </c>
-      <c r="O14" s="308"/>
+      <c r="O14" s="307"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="17">
         <v>1</v>
       </c>
       <c r="R14" s="17"/>
-      <c r="S14" s="308">
+      <c r="S14" s="307">
         <v>1</v>
       </c>
       <c r="T14" s="8"/>
@@ -14798,7 +14949,7 @@
         <v>2</v>
       </c>
       <c r="V14" s="17"/>
-      <c r="W14" s="318"/>
+      <c r="W14" s="314"/>
       <c r="AA14" t="s">
         <v>234</v>
       </c>
@@ -14821,8 +14972,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B15" s="310">
+    <row r="15" spans="1:33">
+      <c r="B15" s="326">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -14888,8 +15039,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B16" s="310"/>
+    <row r="16" spans="1:33">
+      <c r="B16" s="326"/>
       <c r="C16" s="1">
         <v>6</v>
       </c>
@@ -14944,8 +15095,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B17" s="310"/>
+    <row r="17" spans="1:33">
+      <c r="B17" s="326"/>
       <c r="C17" s="1">
         <v>7</v>
       </c>
@@ -14994,8 +15145,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B18" s="310"/>
+    <row r="18" spans="1:33">
+      <c r="B18" s="326"/>
       <c r="C18" s="1">
         <v>8</v>
       </c>
@@ -15006,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="308"/>
+      <c r="G18" s="307"/>
       <c r="H18" s="8">
         <v>1</v>
       </c>
@@ -15014,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="308"/>
+      <c r="K18" s="307"/>
       <c r="L18" s="8"/>
       <c r="M18" s="17">
         <v>1</v>
@@ -15022,13 +15173,13 @@
       <c r="N18" s="17">
         <v>1</v>
       </c>
-      <c r="O18" s="308"/>
+      <c r="O18" s="307"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="17">
         <v>1</v>
       </c>
       <c r="R18" s="17"/>
-      <c r="S18" s="308">
+      <c r="S18" s="307">
         <v>1</v>
       </c>
       <c r="T18" s="8"/>
@@ -15036,7 +15187,7 @@
         <v>2</v>
       </c>
       <c r="V18" s="17"/>
-      <c r="W18" s="318"/>
+      <c r="W18" s="314"/>
       <c r="AA18" s="275" t="s">
         <v>262</v>
       </c>
@@ -15044,8 +15195,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B19" s="310">
+    <row r="19" spans="1:33">
+      <c r="B19" s="326">
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -15090,8 +15241,8 @@
       <c r="V19" s="16"/>
       <c r="W19" s="128"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B20" s="310"/>
+    <row r="20" spans="1:33">
+      <c r="B20" s="326"/>
       <c r="C20" s="1">
         <v>10</v>
       </c>
@@ -15137,8 +15288,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B21" s="310"/>
+    <row r="21" spans="1:33">
+      <c r="B21" s="326"/>
       <c r="C21" s="1">
         <v>11</v>
       </c>
@@ -15202,8 +15353,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B22" s="310"/>
+    <row r="22" spans="1:33">
+      <c r="B22" s="326"/>
       <c r="C22" s="1">
         <v>12</v>
       </c>
@@ -15214,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="308"/>
+      <c r="G22" s="307"/>
       <c r="H22" s="8">
         <v>1</v>
       </c>
@@ -15222,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="308"/>
+      <c r="K22" s="307"/>
       <c r="L22" s="8"/>
       <c r="M22" s="17">
         <v>1</v>
@@ -15230,13 +15381,13 @@
       <c r="N22" s="17">
         <v>1</v>
       </c>
-      <c r="O22" s="308"/>
+      <c r="O22" s="307"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="17">
         <v>1</v>
       </c>
       <c r="R22" s="17"/>
-      <c r="S22" s="308">
+      <c r="S22" s="307">
         <v>1</v>
       </c>
       <c r="T22" s="8"/>
@@ -15244,7 +15395,7 @@
         <v>2</v>
       </c>
       <c r="V22" s="17"/>
-      <c r="W22" s="318"/>
+      <c r="W22" s="314"/>
       <c r="AA22" t="s">
         <v>232</v>
       </c>
@@ -15267,8 +15418,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B23" s="310">
+    <row r="23" spans="1:33">
+      <c r="B23" s="326">
         <v>4</v>
       </c>
       <c r="C23" s="1">
@@ -15290,14 +15441,14 @@
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="306"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="314">
-        <v>1</v>
-      </c>
-      <c r="N23" s="314">
-        <v>1</v>
-      </c>
-      <c r="O23" s="315"/>
+      <c r="L23" s="309"/>
+      <c r="M23" s="310">
+        <v>1</v>
+      </c>
+      <c r="N23" s="310">
+        <v>1</v>
+      </c>
+      <c r="O23" s="311"/>
       <c r="P23" s="305"/>
       <c r="Q23" s="16">
         <v>1</v>
@@ -15334,8 +15485,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="310"/>
+    <row r="24" spans="1:33">
+      <c r="B24" s="326"/>
       <c r="C24" s="1">
         <v>14</v>
       </c>
@@ -15355,14 +15506,14 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="316"/>
+      <c r="L24" s="312"/>
       <c r="M24" s="18">
         <v>1</v>
       </c>
       <c r="N24" s="18">
         <v>1</v>
       </c>
-      <c r="O24" s="317"/>
+      <c r="O24" s="313"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="1">
         <v>1</v>
@@ -15399,8 +15550,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B25" s="310"/>
+    <row r="25" spans="1:33">
+      <c r="B25" s="326"/>
       <c r="C25" s="1">
         <v>15</v>
       </c>
@@ -15420,14 +15571,14 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="316"/>
+      <c r="L25" s="312"/>
       <c r="M25" s="18">
         <v>1</v>
       </c>
       <c r="N25" s="18">
         <v>1</v>
       </c>
-      <c r="O25" s="317"/>
+      <c r="O25" s="313"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="1">
         <v>1</v>
@@ -15464,43 +15615,43 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="311"/>
+    <row r="26" spans="1:33" ht="14.4" thickBot="1">
+      <c r="B26" s="327"/>
       <c r="C26" s="4">
         <v>16</v>
       </c>
-      <c r="D26" s="319">
+      <c r="D26" s="315">
         <v>1</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="320"/>
-      <c r="H26" s="319">
+      <c r="G26" s="316"/>
+      <c r="H26" s="315">
         <v>1</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="320"/>
-      <c r="L26" s="321">
-        <v>1</v>
-      </c>
-      <c r="M26" s="312">
-        <v>1</v>
-      </c>
-      <c r="N26" s="312"/>
-      <c r="O26" s="322"/>
-      <c r="P26" s="319">
+      <c r="K26" s="316"/>
+      <c r="L26" s="317">
+        <v>1</v>
+      </c>
+      <c r="M26" s="308">
+        <v>1</v>
+      </c>
+      <c r="N26" s="308"/>
+      <c r="O26" s="318"/>
+      <c r="P26" s="315">
         <v>1</v>
       </c>
       <c r="Q26" s="4">
         <v>1</v>
       </c>
       <c r="R26" s="4"/>
-      <c r="S26" s="320"/>
+      <c r="S26" s="316"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4">
         <v>2</v>
@@ -15520,8 +15671,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="323"/>
+    <row r="27" spans="1:33" ht="14.4" thickBot="1">
+      <c r="B27" s="319"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -15547,7 +15698,7 @@
       <c r="AF27" s="276"/>
       <c r="AG27" s="276"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33">
       <c r="B28" s="11" t="s">
         <v>294</v>
       </c>
@@ -15619,7 +15770,7 @@
       <c r="AF28" s="276"/>
       <c r="AG28" s="276"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33">
       <c r="A29" t="str">
         <f>D2</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -15630,36 +15781,36 @@
       <c r="C29" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="307" t="s">
+      <c r="D29" s="324" t="s">
         <v>295</v>
       </c>
-      <c r="E29" s="307"/>
-      <c r="F29" s="307"/>
-      <c r="G29" s="307"/>
-      <c r="H29" s="307" t="s">
+      <c r="E29" s="324"/>
+      <c r="F29" s="324"/>
+      <c r="G29" s="324"/>
+      <c r="H29" s="324" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="307"/>
-      <c r="J29" s="307"/>
-      <c r="K29" s="307"/>
-      <c r="L29" s="307" t="s">
+      <c r="I29" s="324"/>
+      <c r="J29" s="324"/>
+      <c r="K29" s="324"/>
+      <c r="L29" s="324" t="s">
         <v>297</v>
       </c>
-      <c r="M29" s="307"/>
-      <c r="N29" s="307"/>
-      <c r="O29" s="307"/>
-      <c r="P29" s="307" t="s">
+      <c r="M29" s="324"/>
+      <c r="N29" s="324"/>
+      <c r="O29" s="324"/>
+      <c r="P29" s="324" t="s">
         <v>298</v>
       </c>
-      <c r="Q29" s="307"/>
-      <c r="R29" s="307"/>
-      <c r="S29" s="307"/>
-      <c r="T29" s="307" t="s">
+      <c r="Q29" s="324"/>
+      <c r="R29" s="324"/>
+      <c r="S29" s="324"/>
+      <c r="T29" s="324" t="s">
         <v>299</v>
       </c>
-      <c r="U29" s="307"/>
-      <c r="V29" s="307"/>
-      <c r="W29" s="309"/>
+      <c r="U29" s="324"/>
+      <c r="V29" s="324"/>
+      <c r="W29" s="325"/>
       <c r="X29" s="1" t="s">
         <v>302</v>
       </c>
@@ -15671,8 +15822,8 @@
       <c r="AF29" s="276"/>
       <c r="AG29" s="276"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B30" s="310">
+    <row r="30" spans="1:33">
+      <c r="B30" s="326">
         <v>1</v>
       </c>
       <c r="C30" s="1">
@@ -15702,15 +15853,15 @@
         <v>303</v>
       </c>
       <c r="Y30">
-        <f t="shared" ref="Y30:Y32" si="2">AC23-SUM(D31:D46,H31:H46,L31:L46,P31:P46,T31:T46)</f>
+        <f t="shared" ref="Y30:Y32" si="4">AC23-SUM(D31:D46,H31:H46,L31:L46,P31:P46,T31:T46)</f>
         <v>78</v>
       </c>
       <c r="AE30" s="276"/>
       <c r="AF30" s="276"/>
       <c r="AG30" s="276"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B31" s="310"/>
+    <row r="31" spans="1:33">
+      <c r="B31" s="326"/>
       <c r="C31" s="1">
         <v>2</v>
       </c>
@@ -15738,12 +15889,12 @@
         <v>304</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B32" s="310"/>
+    <row r="32" spans="1:33">
+      <c r="B32" s="326"/>
       <c r="C32" s="1">
         <v>3</v>
       </c>
@@ -15771,38 +15922,38 @@
         <v>305</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="310"/>
+    <row r="33" spans="2:23">
+      <c r="B33" s="326"/>
       <c r="C33" s="1">
         <v>4</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="308"/>
+      <c r="G33" s="307"/>
       <c r="H33" s="8"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="308"/>
+      <c r="K33" s="307"/>
       <c r="L33" s="8"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="308"/>
+      <c r="O33" s="307"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
-      <c r="S33" s="308"/>
+      <c r="S33" s="307"/>
       <c r="T33" s="8"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="318"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="310">
+      <c r="W33" s="314"/>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="326">
         <v>2</v>
       </c>
       <c r="C34" s="1">
@@ -15829,8 +15980,8 @@
       <c r="V34" s="16"/>
       <c r="W34" s="128"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="310"/>
+    <row r="35" spans="2:23">
+      <c r="B35" s="326"/>
       <c r="C35" s="1">
         <v>6</v>
       </c>
@@ -15855,8 +16006,8 @@
       <c r="V35" s="1"/>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="310"/>
+    <row r="36" spans="2:23">
+      <c r="B36" s="326"/>
       <c r="C36" s="1">
         <v>7</v>
       </c>
@@ -15881,34 +16032,34 @@
       <c r="V36" s="1"/>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="310"/>
+    <row r="37" spans="2:23">
+      <c r="B37" s="326"/>
       <c r="C37" s="1">
         <v>8</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="308"/>
+      <c r="G37" s="307"/>
       <c r="H37" s="8"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="308"/>
+      <c r="K37" s="307"/>
       <c r="L37" s="8"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="308"/>
+      <c r="O37" s="307"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
-      <c r="S37" s="308"/>
+      <c r="S37" s="307"/>
       <c r="T37" s="8"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" s="318"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="310">
+      <c r="W37" s="314"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="326">
         <v>3</v>
       </c>
       <c r="C38" s="1">
@@ -15935,8 +16086,8 @@
       <c r="V38" s="16"/>
       <c r="W38" s="128"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="310"/>
+    <row r="39" spans="2:23">
+      <c r="B39" s="326"/>
       <c r="C39" s="1">
         <v>10</v>
       </c>
@@ -15961,8 +16112,8 @@
       <c r="V39" s="1"/>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="310"/>
+    <row r="40" spans="2:23">
+      <c r="B40" s="326"/>
       <c r="C40" s="1">
         <v>11</v>
       </c>
@@ -15987,34 +16138,34 @@
       <c r="V40" s="1"/>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="310"/>
+    <row r="41" spans="2:23">
+      <c r="B41" s="326"/>
       <c r="C41" s="1">
         <v>12</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="308"/>
+      <c r="G41" s="307"/>
       <c r="H41" s="8"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="308"/>
+      <c r="K41" s="307"/>
       <c r="L41" s="8"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
-      <c r="O41" s="308"/>
+      <c r="O41" s="307"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
-      <c r="S41" s="308"/>
+      <c r="S41" s="307"/>
       <c r="T41" s="8"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="318"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="310">
+      <c r="W41" s="314"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="326">
         <v>4</v>
       </c>
       <c r="C42" s="1">
@@ -16028,10 +16179,10 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="306"/>
-      <c r="L42" s="313"/>
-      <c r="M42" s="314"/>
-      <c r="N42" s="314"/>
-      <c r="O42" s="315"/>
+      <c r="L42" s="309"/>
+      <c r="M42" s="310"/>
+      <c r="N42" s="310"/>
+      <c r="O42" s="311"/>
       <c r="P42" s="305"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -16041,8 +16192,8 @@
       <c r="V42" s="1"/>
       <c r="W42" s="15"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="310"/>
+    <row r="43" spans="2:23">
+      <c r="B43" s="326"/>
       <c r="C43" s="1">
         <v>14</v>
       </c>
@@ -16054,10 +16205,10 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="316"/>
+      <c r="L43" s="312"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="317"/>
+      <c r="O43" s="313"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -16067,8 +16218,8 @@
       <c r="V43" s="1"/>
       <c r="W43" s="15"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="310"/>
+    <row r="44" spans="2:23">
+      <c r="B44" s="326"/>
       <c r="C44" s="1">
         <v>15</v>
       </c>
@@ -16080,10 +16231,10 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="316"/>
+      <c r="L44" s="312"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="317"/>
+      <c r="O44" s="313"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -16093,27 +16244,27 @@
       <c r="V44" s="1"/>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="311"/>
+    <row r="45" spans="2:23" ht="14.4" thickBot="1">
+      <c r="B45" s="327"/>
       <c r="C45" s="4">
         <v>16</v>
       </c>
-      <c r="D45" s="319"/>
+      <c r="D45" s="315"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="320"/>
-      <c r="H45" s="319"/>
+      <c r="G45" s="316"/>
+      <c r="H45" s="315"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="320"/>
-      <c r="L45" s="321"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="322"/>
-      <c r="P45" s="319"/>
+      <c r="K45" s="316"/>
+      <c r="L45" s="317"/>
+      <c r="M45" s="308"/>
+      <c r="N45" s="308"/>
+      <c r="O45" s="318"/>
+      <c r="P45" s="315"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="320"/>
+      <c r="S45" s="316"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -16126,6 +16277,10 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="L10:O10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="D29:G29"/>
@@ -16133,44 +16288,40 @@
     <mergeCell ref="L29:O29"/>
     <mergeCell ref="P29:S29"/>
     <mergeCell ref="T29:W29"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:K10"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:U74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="C2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="E3" t="str">
         <f>'RAIL COST help sheet'!L13</f>
         <v>Venlo</v>
@@ -16216,37 +16367,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="C4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="C5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="C6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="C7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="C8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.4" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.4" thickBot="1">
       <c r="A11" s="197" t="s">
         <v>207</v>
       </c>
@@ -16263,7 +16414,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="21"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16281,7 +16432,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.4" thickBot="1">
       <c r="A13" s="21"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16330,7 +16481,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="252" t="s">
         <v>110</v>
       </c>
@@ -16386,7 +16537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.4" thickBot="1">
       <c r="A15" s="96" t="s">
         <v>121</v>
       </c>
@@ -16412,7 +16563,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.4" thickBot="1">
       <c r="A16" s="21"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16443,7 +16594,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.4" thickBot="1">
       <c r="A17" s="251" t="s">
         <v>195</v>
       </c>
@@ -16471,7 +16622,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.4" thickBot="1">
       <c r="A18" s="21"/>
       <c r="B18" s="98" t="s">
         <v>104</v>
@@ -16497,7 +16648,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="14.4" thickBot="1">
       <c r="A19" s="21" t="s">
         <v>168</v>
       </c>
@@ -16527,7 +16678,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="14.4" thickBot="1">
       <c r="A20" s="21"/>
       <c r="B20" s="98" t="s">
         <v>105</v>
@@ -16553,7 +16704,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="14.4" thickBot="1">
       <c r="A21" s="251" t="s">
         <v>196</v>
       </c>
@@ -16581,7 +16732,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="21"/>
       <c r="B22" s="98" t="s">
         <v>102</v>
@@ -16608,7 +16759,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="14.4" thickBot="1">
       <c r="A23" s="21"/>
       <c r="B23" s="98"/>
       <c r="C23" s="1"/>
@@ -16633,7 +16784,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="14.4" thickBot="1">
       <c r="A24" s="21"/>
       <c r="B24" s="149" t="s">
         <v>140</v>
@@ -16655,7 +16806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="14.4" thickBot="1">
       <c r="A25" s="21"/>
       <c r="B25" s="150" t="s">
         <v>92</v>
@@ -16680,7 +16831,7 @@
       <c r="L25" s="190"/>
       <c r="M25" s="217"/>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14.4" thickBot="1">
       <c r="A26" s="21"/>
       <c r="B26" s="127" t="s">
         <v>93</v>
@@ -16715,7 +16866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="21"/>
       <c r="B27" s="127" t="s">
         <v>94</v>
@@ -16743,7 +16894,7 @@
       <c r="N27" s="220"/>
       <c r="O27" s="221"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="21"/>
       <c r="B28" s="127" t="s">
         <v>96</v>
@@ -16771,7 +16922,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="107"/>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14.4" thickBot="1">
       <c r="A29" s="21"/>
       <c r="B29" s="151" t="s">
         <v>95</v>
@@ -16799,7 +16950,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="107"/>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.4" thickBot="1">
       <c r="A30" s="21"/>
       <c r="B30" s="1"/>
       <c r="C30" s="123"/>
@@ -16817,7 +16968,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="107"/>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.4" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16835,7 +16986,7 @@
       <c r="N31" s="224"/>
       <c r="O31" s="225"/>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.4" thickBot="1">
       <c r="A32" s="21"/>
       <c r="B32" s="149" t="s">
         <v>167</v>
@@ -16847,7 +16998,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="14.4" thickBot="1">
       <c r="B33" s="149" t="s">
         <v>140</v>
       </c>
@@ -16865,7 +17016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="B34" s="150" t="s">
         <v>92</v>
       </c>
@@ -16875,7 +17026,7 @@
       <c r="F34" s="153"/>
       <c r="G34" s="153"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="B35" s="127" t="s">
         <v>93</v>
       </c>
@@ -16900,7 +17051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="9.75" customHeight="1">
       <c r="B36" s="127" t="s">
         <v>94</v>
       </c>
@@ -16915,7 +17066,7 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="B37" s="127" t="s">
         <v>96</v>
       </c>
@@ -16930,7 +17081,7 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="14.4" thickBot="1">
       <c r="B38" s="151" t="s">
         <v>95</v>
       </c>
@@ -16945,22 +17096,22 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14.4" thickBot="1"/>
+    <row r="42" spans="1:15" ht="14.4" thickBot="1">
       <c r="A42" s="21" t="s">
         <v>114</v>
       </c>
@@ -16974,7 +17125,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.4" thickBot="1">
       <c r="A43" s="21"/>
       <c r="B43" s="98" t="s">
         <v>197</v>
@@ -16994,7 +17145,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14.4" thickBot="1">
       <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
         <v>92</v>
@@ -17008,7 +17159,7 @@
       </c>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="21"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -17033,7 +17184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="21"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -17048,7 +17199,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="21"/>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -17063,7 +17214,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="21"/>
       <c r="B48" s="1" t="s">
         <v>109</v>
@@ -17078,7 +17229,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="21"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -17093,7 +17244,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.4" thickBot="1">
       <c r="A50" s="21"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -17108,7 +17259,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="14.4" thickBot="1">
       <c r="A51" s="21" t="s">
         <v>115</v>
       </c>
@@ -17122,7 +17273,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="14.4" thickBot="1">
       <c r="A52" s="21"/>
       <c r="B52" s="108" t="s">
         <v>113</v>
@@ -17142,7 +17293,7 @@
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.4" thickBot="1">
       <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
         <v>92</v>
@@ -17156,7 +17307,7 @@
       </c>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="21"/>
       <c r="B54" s="1" t="s">
         <v>93</v>
@@ -17181,7 +17332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="21"/>
       <c r="B55" s="1" t="s">
         <v>94</v>
@@ -17196,7 +17347,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="21"/>
       <c r="B56" s="1" t="s">
         <v>96</v>
@@ -17211,7 +17362,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="21"/>
       <c r="B57" s="1" t="s">
         <v>109</v>
@@ -17226,7 +17377,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" s="21"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -17241,7 +17392,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="14.4" thickBot="1">
       <c r="A59" s="21"/>
       <c r="C59" s="98"/>
       <c r="D59" s="1"/>
@@ -17255,7 +17406,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="14.4" thickBot="1">
       <c r="A60" s="21"/>
       <c r="B60" s="122" t="s">
         <v>117</v>
@@ -17268,7 +17419,7 @@
       <c r="F60" s="97"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="K62" s="6" t="s">
         <v>80</v>
       </c>
@@ -17285,8 +17436,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="14.4" thickBot="1"/>
+    <row r="68" spans="2:15" ht="14.4" thickBot="1">
       <c r="B68" s="122" t="s">
         <v>116</v>
       </c>
@@ -17296,7 +17447,7 @@
       <c r="F68" s="97"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="K70" s="6" t="s">
         <v>80</v>
       </c>
@@ -17313,7 +17464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="14.4" thickBot="1">
       <c r="D73" s="98" t="s">
         <v>81</v>
       </c>
@@ -17327,7 +17478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" ht="14.4" thickBot="1">
       <c r="B74" s="122" t="s">
         <v>119</v>
       </c>
@@ -17338,80 +17489,80 @@
       <c r="G74" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A102" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="270" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="270" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" style="270" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" style="270" customWidth="1"/>
-    <col min="5" max="5" width="21.796875" style="270" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="270" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="270" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="270" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="270" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="270" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="270" customWidth="1"/>
     <col min="7" max="7" width="15" style="270" customWidth="1"/>
     <col min="8" max="9" width="14" style="270" customWidth="1"/>
     <col min="10" max="10" width="21" style="270" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="270" customWidth="1"/>
     <col min="12" max="12" width="21" style="270" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="45.3984375" style="270" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" style="270" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" style="270" customWidth="1"/>
-    <col min="17" max="17" width="21.3984375" style="270" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.3984375" style="270" customWidth="1"/>
-    <col min="20" max="20" width="26.19921875" style="270" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="45.44140625" style="270" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="270" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="270" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="270" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="25.44140625" style="270" customWidth="1"/>
+    <col min="20" max="20" width="26.21875" style="270" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23" style="270" customWidth="1"/>
-    <col min="22" max="22" width="9.3984375" style="270" customWidth="1"/>
-    <col min="23" max="24" width="11.19921875" style="270" customWidth="1"/>
-    <col min="25" max="25" width="8.59765625" style="270" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" style="270" customWidth="1"/>
+    <col min="23" max="24" width="11.21875" style="270" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" style="270" customWidth="1"/>
     <col min="26" max="26" width="24" style="270" customWidth="1"/>
-    <col min="27" max="28" width="8.796875" style="270" customWidth="1"/>
+    <col min="27" max="28" width="8.77734375" style="270" customWidth="1"/>
     <col min="29" max="29" width="6" style="270" customWidth="1"/>
-    <col min="30" max="16384" width="10.59765625" style="270"/>
+    <col min="30" max="16384" width="10.5546875" style="270"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="271" t="s">
         <v>236</v>
       </c>
@@ -17431,7 +17582,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="E2" s="285" t="s">
         <v>255</v>
       </c>
@@ -17451,7 +17602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="18">
       <c r="A3" s="271" t="s">
         <v>247</v>
       </c>
@@ -17477,7 +17628,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="18">
       <c r="A4" s="271" t="s">
         <v>248</v>
       </c>
@@ -17495,7 +17646,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="271" t="s">
         <v>249</v>
       </c>
@@ -17513,7 +17664,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="18">
       <c r="A6" s="271" t="s">
         <v>250</v>
       </c>
@@ -17531,7 +17682,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="17.399999999999999">
       <c r="A7" s="277"/>
       <c r="B7" s="277"/>
       <c r="E7" s="261"/>
@@ -17545,18 +17696,22 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" s="274"/>
       <c r="B8" s="270" t="s">
         <v>246</v>
       </c>
+      <c r="H8" s="322"/>
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
+      <c r="K9" s="270">
+        <v>77</v>
+      </c>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
@@ -17570,7 +17725,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" s="270" t="s">
         <v>242</v>
       </c>
@@ -17623,7 +17778,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -17686,7 +17841,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -17746,7 +17901,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -17801,7 +17956,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -17861,54 +18016,54 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="270" t="str">
+    <row r="15" spans="1:29">
+      <c r="A15" s="277" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
       </c>
-      <c r="B15" s="270" t="s">
+      <c r="B15" s="277" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="270">
+      <c r="C15" s="277">
         <v>1.25</v>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="323">
         <f>1-SUM(D16:D18)</f>
         <v>0.29999999999999993</v>
       </c>
-      <c r="E15" s="270">
+      <c r="E15" s="277">
         <f>D15*HLOOKUP(A15,'Current base situation'!$19:$22,4,0)</f>
         <v>3599.9999999999991</v>
       </c>
-      <c r="F15" s="270">
+      <c r="F15" s="277">
         <f t="shared" si="1"/>
         <v>2879.9999999999991</v>
       </c>
-      <c r="G15" s="270">
+      <c r="G15" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="270">
+      <c r="H15" s="277">
         <f t="shared" si="2"/>
         <v>2879.9999999999991</v>
       </c>
-      <c r="I15" s="270">
+      <c r="I15" s="277">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="J15" s="286">
+      <c r="J15" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K15" s="286">
+      <c r="K15" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L15" s="286">
+      <c r="L15" s="321">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="M15" s="270" t="s">
+      <c r="M15" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P15"/>
@@ -17922,53 +18077,53 @@
       <c r="Y15"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="270" t="str">
+    <row r="16" spans="1:29">
+      <c r="A16" s="277" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
       </c>
-      <c r="B16" s="270" t="s">
+      <c r="B16" s="277" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="277">
         <v>1.25</v>
       </c>
-      <c r="D16" s="273">
+      <c r="D16" s="320">
         <v>0.4</v>
       </c>
-      <c r="E16" s="270">
+      <c r="E16" s="277">
         <f>D16*HLOOKUP(A16,'Current base situation'!$19:$22,4,0)</f>
         <v>4800</v>
       </c>
-      <c r="F16" s="270">
+      <c r="F16" s="277">
         <f t="shared" si="1"/>
         <v>3840</v>
       </c>
-      <c r="G16" s="270">
+      <c r="G16" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="270">
+      <c r="H16" s="277">
         <f t="shared" si="2"/>
         <v>3840</v>
       </c>
-      <c r="I16" s="270">
+      <c r="I16" s="277">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="J16" s="286">
+      <c r="J16" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K16" s="286">
+      <c r="K16" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L16" s="286">
+      <c r="L16" s="321">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="M16" s="270" t="s">
+      <c r="M16" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P16"/>
@@ -17981,53 +18136,53 @@
       <c r="Y16"/>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="270" t="str">
+    <row r="17" spans="1:26">
+      <c r="A17" s="277" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
       </c>
-      <c r="B17" s="270" t="s">
+      <c r="B17" s="277" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="270">
+      <c r="C17" s="277">
         <v>1.5</v>
       </c>
-      <c r="D17" s="273">
+      <c r="D17" s="320">
         <v>0.2</v>
       </c>
-      <c r="E17" s="270">
+      <c r="E17" s="277">
         <f>D17*HLOOKUP(A17,'Current base situation'!$19:$22,4,0)</f>
         <v>2400</v>
       </c>
-      <c r="F17" s="270">
+      <c r="F17" s="277">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="G17" s="270">
+      <c r="G17" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="270">
+      <c r="H17" s="277">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="I17" s="270">
+      <c r="I17" s="277">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="J17" s="286">
+      <c r="J17" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="286">
+      <c r="K17" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L17" s="286">
+      <c r="L17" s="321">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="M17" s="270" t="s">
+      <c r="M17" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P17"/>
@@ -18041,53 +18196,53 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="270" t="str">
+    <row r="18" spans="1:26">
+      <c r="A18" s="277" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
       </c>
-      <c r="B18" s="270" t="s">
+      <c r="B18" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="270">
+      <c r="C18" s="277">
         <v>0.5</v>
       </c>
-      <c r="D18" s="273">
+      <c r="D18" s="320">
         <v>0.1</v>
       </c>
-      <c r="E18" s="270">
+      <c r="E18" s="277">
         <f>D18*HLOOKUP(A18,'Current base situation'!$19:$22,4,0)</f>
         <v>1200</v>
       </c>
-      <c r="F18" s="270">
+      <c r="F18" s="277">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="G18" s="270">
+      <c r="G18" s="277">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H18" s="270">
+      <c r="H18" s="277">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="I18" s="270">
+      <c r="I18" s="277">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="J18" s="286">
+      <c r="J18" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K18" s="286">
+      <c r="K18" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L18" s="286">
+      <c r="L18" s="321">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="M18" s="270" t="s">
+      <c r="M18" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P18"/>
@@ -18101,50 +18256,50 @@
       <c r="Y18"/>
       <c r="Z18"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="270" t="str">
+    <row r="19" spans="1:26">
+      <c r="A19" s="277" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
       </c>
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="277" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="270">
+      <c r="C19" s="277">
         <v>1.25</v>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="323">
         <f>1-SUM(D20:D22)</f>
         <v>0.20000000000000007</v>
       </c>
-      <c r="E19" s="270">
+      <c r="E19" s="277">
         <f>D19*HLOOKUP(A19,'Current base situation'!$19:$22,4,0)</f>
         <v>1200.0000000000005</v>
       </c>
-      <c r="F19" s="270">
+      <c r="F19" s="277">
         <f t="shared" si="1"/>
         <v>960.00000000000034</v>
       </c>
-      <c r="G19" s="270">
+      <c r="G19" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19" s="270">
+      <c r="H19" s="277">
         <f t="shared" si="2"/>
         <v>960.00000000000034</v>
       </c>
-      <c r="I19" s="270">
+      <c r="I19" s="277">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="J19" s="286">
+      <c r="J19" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="286">
+      <c r="K19" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L19" s="286">
+      <c r="L19" s="321">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
@@ -18155,49 +18310,49 @@
       <c r="Y19"/>
       <c r="Z19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="270" t="str">
+    <row r="20" spans="1:26">
+      <c r="A20" s="277" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
       </c>
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="277" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="270">
+      <c r="C20" s="277">
         <v>1.25</v>
       </c>
-      <c r="D20" s="273">
+      <c r="D20" s="320">
         <v>0.3</v>
       </c>
-      <c r="E20" s="270">
+      <c r="E20" s="277">
         <f>D20*HLOOKUP(A20,'Current base situation'!$19:$22,4,0)</f>
         <v>1800</v>
       </c>
-      <c r="F20" s="270">
+      <c r="F20" s="277">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="G20" s="270">
+      <c r="G20" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H20" s="270">
+      <c r="H20" s="277">
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="I20" s="270">
+      <c r="I20" s="277">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="J20" s="286">
+      <c r="J20" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K20" s="286">
+      <c r="K20" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L20" s="286">
+      <c r="L20" s="321">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
@@ -18209,49 +18364,49 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="270" t="str">
+    <row r="21" spans="1:26">
+      <c r="A21" s="277" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
       </c>
-      <c r="B21" s="270" t="s">
+      <c r="B21" s="277" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="270">
+      <c r="C21" s="277">
         <v>1.5</v>
       </c>
-      <c r="D21" s="273">
+      <c r="D21" s="320">
         <v>0.35</v>
       </c>
-      <c r="E21" s="270">
+      <c r="E21" s="277">
         <f>D21*HLOOKUP(A21,'Current base situation'!$19:$22,4,0)</f>
         <v>2100</v>
       </c>
-      <c r="F21" s="270">
+      <c r="F21" s="277">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="G21" s="270">
+      <c r="G21" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H21" s="270">
+      <c r="H21" s="277">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="I21" s="270">
+      <c r="I21" s="277">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J21" s="286">
+      <c r="J21" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K21" s="286">
+      <c r="K21" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L21" s="286">
+      <c r="L21" s="321">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -18263,49 +18418,49 @@
       <c r="R21"/>
       <c r="S21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="270" t="str">
+    <row r="22" spans="1:26">
+      <c r="A22" s="277" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
       </c>
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="270">
+      <c r="C22" s="277">
         <v>0.5</v>
       </c>
-      <c r="D22" s="273">
+      <c r="D22" s="320">
         <v>0.15</v>
       </c>
-      <c r="E22" s="270">
+      <c r="E22" s="277">
         <f>D22*HLOOKUP(A22,'Current base situation'!$19:$22,4,0)</f>
         <v>900</v>
       </c>
-      <c r="F22" s="270">
+      <c r="F22" s="277">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G22" s="270">
+      <c r="G22" s="277">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H22" s="270">
+      <c r="H22" s="277">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="I22" s="270">
+      <c r="I22" s="277">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="J22" s="286">
+      <c r="J22" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K22" s="286">
+      <c r="K22" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L22" s="286">
+      <c r="L22" s="321">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
@@ -18317,7 +18472,7 @@
       <c r="R22"/>
       <c r="S22"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26">
       <c r="A23" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -18372,7 +18527,7 @@
       <c r="R23"/>
       <c r="S23"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26">
       <c r="A24" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -18426,7 +18581,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26">
       <c r="A25" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -18480,7 +18635,7 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26">
       <c r="A26" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -18534,7 +18689,7 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -18589,7 +18744,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -18643,7 +18798,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26">
       <c r="A29" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -18697,7 +18852,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -18749,220 +18904,220 @@
       <c r="Q30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="270" t="str">
+    <row r="31" spans="1:26">
+      <c r="A31" s="277" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
       </c>
-      <c r="B31" s="270" t="s">
+      <c r="B31" s="277" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="270">
+      <c r="C31" s="277">
         <v>1.25</v>
       </c>
-      <c r="D31" s="278">
+      <c r="D31" s="323">
         <f>1-SUM(D32:D34)</f>
         <v>0.25</v>
       </c>
-      <c r="E31" s="270">
+      <c r="E31" s="277">
         <f>D31*HLOOKUP(A31,'Current base situation'!$19:$22,4,0)</f>
         <v>1500</v>
       </c>
-      <c r="F31" s="270">
+      <c r="F31" s="277">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G31" s="270">
+      <c r="G31" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31" s="270">
+      <c r="H31" s="277">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="I31" s="270">
+      <c r="I31" s="277">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="J31" s="286">
+      <c r="J31" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K31" s="286">
+      <c r="K31" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L31" s="286">
+      <c r="L31" s="321">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="M31" s="270" t="s">
+      <c r="M31" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="270" t="str">
+    <row r="32" spans="1:26">
+      <c r="A32" s="277" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
       </c>
-      <c r="B32" s="270" t="s">
+      <c r="B32" s="277" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="270">
+      <c r="C32" s="277">
         <v>1.25</v>
       </c>
-      <c r="D32" s="273">
+      <c r="D32" s="320">
         <v>0.45</v>
       </c>
-      <c r="E32" s="270">
+      <c r="E32" s="277">
         <f>D32*HLOOKUP(A32,'Current base situation'!$19:$22,4,0)</f>
         <v>2700</v>
       </c>
-      <c r="F32" s="270">
+      <c r="F32" s="277">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
-      <c r="G32" s="270">
+      <c r="G32" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H32" s="270">
+      <c r="H32" s="277">
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
-      <c r="I32" s="270">
+      <c r="I32" s="277">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="J32" s="286">
+      <c r="J32" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K32" s="286">
+      <c r="K32" s="321">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="L32" s="286">
+      <c r="L32" s="321">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="M32" s="270" t="s">
+      <c r="M32" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="270" t="str">
+    <row r="33" spans="1:19">
+      <c r="A33" s="277" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
       </c>
-      <c r="B33" s="270" t="s">
+      <c r="B33" s="277" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="270">
+      <c r="C33" s="277">
         <v>1.5</v>
       </c>
-      <c r="D33" s="273">
+      <c r="D33" s="320">
         <v>0.2</v>
       </c>
-      <c r="E33" s="270">
+      <c r="E33" s="277">
         <f>D33*HLOOKUP(A33,'Current base situation'!$19:$22,4,0)</f>
         <v>1200</v>
       </c>
-      <c r="F33" s="270">
+      <c r="F33" s="277">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="G33" s="270">
+      <c r="G33" s="277">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H33" s="270">
+      <c r="H33" s="277">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="I33" s="270">
+      <c r="I33" s="277">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="J33" s="286">
+      <c r="J33" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K33" s="286">
+      <c r="K33" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L33" s="286">
+      <c r="L33" s="321">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="M33" s="270" t="s">
+      <c r="M33" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="270" t="str">
+    <row r="34" spans="1:19">
+      <c r="A34" s="277" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
       </c>
-      <c r="B34" s="270" t="s">
+      <c r="B34" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="270">
+      <c r="C34" s="277">
         <v>0.5</v>
       </c>
-      <c r="D34" s="273">
+      <c r="D34" s="320">
         <v>0.1</v>
       </c>
-      <c r="E34" s="270">
+      <c r="E34" s="277">
         <f>D34*HLOOKUP(A34,'Current base situation'!$19:$22,4,0)</f>
         <v>600</v>
       </c>
-      <c r="F34" s="270">
+      <c r="F34" s="277">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G34" s="270">
+      <c r="G34" s="277">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H34" s="270">
+      <c r="H34" s="277">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="I34" s="270">
+      <c r="I34" s="277">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="J34" s="286">
+      <c r="J34" s="321">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K34" s="286">
+      <c r="K34" s="321">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L34" s="286">
+      <c r="L34" s="321">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="M34" s="270" t="s">
+      <c r="M34" s="277" t="s">
         <v>3</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -19016,7 +19171,7 @@
       <c r="Q35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -19068,7 +19223,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -19120,7 +19275,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -19172,7 +19327,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -19225,7 +19380,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -19277,7 +19432,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -19328,7 +19483,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -19380,7 +19535,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -19433,7 +19588,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -19485,7 +19640,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -19537,7 +19692,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -19589,7 +19744,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -19642,7 +19797,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -19694,7 +19849,7 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -19746,7 +19901,7 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -19798,7 +19953,7 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -19842,7 +19997,7 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -19880,7 +20035,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -19920,7 +20075,7 @@
       <c r="P53"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -19960,7 +20115,7 @@
       <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -20001,7 +20156,7 @@
       <c r="P55"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -20041,7 +20196,7 @@
       <c r="P56"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -20084,7 +20239,7 @@
       <c r="P57"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -20124,7 +20279,7 @@
       <c r="P58"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -20168,7 +20323,7 @@
       <c r="P59"/>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -20208,7 +20363,7 @@
       <c r="P60"/>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -20251,7 +20406,7 @@
       <c r="P61"/>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -20291,7 +20446,7 @@
       <c r="P62"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -20330,7 +20485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -20373,7 +20528,7 @@
       <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -20416,7 +20571,7 @@
       <c r="P65"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -20456,7 +20611,7 @@
       <c r="P66"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -20497,7 +20652,7 @@
       <c r="P67"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -20537,7 +20692,7 @@
       <c r="P68"/>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -20577,7 +20732,7 @@
       <c r="P69"/>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -20617,7 +20772,7 @@
       <c r="P70"/>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -20661,7 +20816,7 @@
       <c r="P71"/>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -20701,7 +20856,7 @@
       <c r="P72"/>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -20741,7 +20896,7 @@
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -20779,7 +20934,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -20823,7 +20978,7 @@
       <c r="P75"/>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -20866,7 +21021,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -20906,7 +21061,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -20946,7 +21101,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -20987,7 +21142,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -21030,7 +21185,7 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -21070,7 +21225,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -21110,7 +21265,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -21151,7 +21306,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -21191,7 +21346,7 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -21232,7 +21387,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -21275,7 +21430,7 @@
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -21316,7 +21471,7 @@
       <c r="P87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -21356,7 +21511,7 @@
       <c r="P88"/>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -21396,7 +21551,7 @@
       <c r="P89"/>
       <c r="Q89"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -21436,7 +21591,7 @@
       <c r="P90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -21477,7 +21632,7 @@
       <c r="P91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -21517,7 +21672,7 @@
       <c r="P92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -21560,7 +21715,7 @@
       <c r="P93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="270" t="str">
         <f>'Current base situation'!$AL$19</f>
         <v>Venlo</v>
@@ -21603,7 +21758,7 @@
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -21644,7 +21799,7 @@
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -21682,7 +21837,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -21725,7 +21880,7 @@
       <c r="P97"/>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="270" t="str">
         <f>'Current base situation'!$AP$19</f>
         <v>Wolfsburg</v>
@@ -21768,7 +21923,7 @@
       <c r="P98"/>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -21809,7 +21964,7 @@
       <c r="P99"/>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -21849,7 +22004,7 @@
       <c r="P100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -21889,7 +22044,7 @@
       <c r="P101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="270" t="str">
         <f>'Current base situation'!$AR$19</f>
         <v>Saarbrucke</v>
@@ -21929,7 +22084,7 @@
       <c r="P102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -21970,7 +22125,7 @@
       <c r="P103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -22010,7 +22165,7 @@
       <c r="P104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -22053,7 +22208,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="270" t="str">
         <f>'Current base situation'!$AX$19</f>
         <v>Praha CZ</v>
@@ -22096,7 +22251,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -22135,7 +22290,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -22175,7 +22330,7 @@
       <c r="P108"/>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -22218,7 +22373,7 @@
       <c r="P109"/>
       <c r="Q109"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -22261,7 +22416,7 @@
       <c r="P110"/>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -22306,7 +22461,7 @@
       <c r="Q111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -22350,7 +22505,7 @@
       <c r="Q112"/>
       <c r="R112"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -22394,7 +22549,7 @@
       <c r="Q113"/>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="270" t="str">
         <f>'Current base situation'!$AN$19</f>
         <v xml:space="preserve">Germersheim  </v>
@@ -22438,7 +22593,7 @@
       <c r="Q114"/>
       <c r="R114"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -22480,7 +22635,7 @@
       <c r="Q115"/>
       <c r="R115"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -22521,7 +22676,7 @@
       <c r="Q116"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -22562,7 +22717,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="270" t="str">
         <f>'Current base situation'!$AV$19</f>
         <v xml:space="preserve">Torino  It. </v>
@@ -22603,7 +22758,7 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -22648,7 +22803,7 @@
       <c r="Q119"/>
       <c r="R119"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -22689,7 +22844,7 @@
       <c r="Q120"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -22730,7 +22885,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="270" t="str">
         <f>'Current base situation'!$AT$19</f>
         <v xml:space="preserve">Paris </v>
@@ -22771,7 +22926,7 @@
       <c r="Q122"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -22813,7 +22968,7 @@
       <c r="Q123"/>
       <c r="R123"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -22854,7 +23009,7 @@
       <c r="Q124"/>
       <c r="R124"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -22895,7 +23050,7 @@
       <c r="Q125"/>
       <c r="R125"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -22939,7 +23094,7 @@
       <c r="Q126"/>
       <c r="R126"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -22981,7 +23136,7 @@
       <c r="Q127"/>
       <c r="R127"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -23025,7 +23180,7 @@
       <c r="Q128"/>
       <c r="R128"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21">
       <c r="A129" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -23066,7 +23221,7 @@
       <c r="Q129"/>
       <c r="R129"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21">
       <c r="A130" s="270" t="str">
         <f>'Current base situation'!$BD$19</f>
         <v>Munich</v>
@@ -23107,7 +23262,7 @@
       <c r="Q130"/>
       <c r="R130"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21">
       <c r="A131" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -23152,7 +23307,7 @@
       <c r="Q131"/>
       <c r="R131"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21">
       <c r="A132" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -23193,7 +23348,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21">
       <c r="A133" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -23234,7 +23389,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21">
       <c r="A134" s="270" t="str">
         <f>'Current base situation'!$BB$19</f>
         <v>Bilbao It.</v>
@@ -23275,7 +23430,7 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21">
       <c r="A135" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -23317,7 +23472,7 @@
       <c r="Q135"/>
       <c r="R135"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21">
       <c r="A136" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -23358,7 +23513,7 @@
       <c r="Q136"/>
       <c r="R136"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21">
       <c r="A137" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -23399,7 +23554,7 @@
       <c r="Q137"/>
       <c r="R137"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21">
       <c r="A138" s="270" t="str">
         <f>'Current base situation'!$AZ$19</f>
         <v xml:space="preserve">Genua  </v>
@@ -23443,22 +23598,22 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21">
       <c r="R139"/>
       <c r="S139"/>
       <c r="T139"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21">
       <c r="R140"/>
       <c r="S140"/>
       <c r="T140"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21">
       <c r="R141"/>
       <c r="S141"/>
       <c r="T141"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21">
       <c r="R142"/>
       <c r="S142"/>
       <c r="T142"/>
@@ -23467,37 +23622,37 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21">
       <c r="U143" s="270">
         <f>300000/25.5</f>
         <v>11764.705882352941</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:M138"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <autoFilter ref="A10:M138" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -23514,7 +23669,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -23529,7 +23684,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -23544,7 +23699,7 @@
         <v>2.5950000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -23559,7 +23714,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -23574,7 +23729,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -23589,7 +23744,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -23604,7 +23759,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -23619,7 +23774,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -23631,7 +23786,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -23646,7 +23801,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -23662,7 +23817,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
